--- a/results/Performance/training/Combined_performance.xlsx
+++ b/results/Performance/training/Combined_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PieterCode\Cu-SX-Fault-Identification\results\Performance\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84233B4-57F0-4616-BB75-78DDDDB50EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2262DB-CAA7-43CC-AD5F-4E695726B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5A8010D-4915-4E6C-945B-B521AF274DB4}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,18 +221,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +257,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="kNN_accuracies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9">
+            <v>0.95865370889772805</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="kNN_results"/>
     </sheetNames>
     <sheetDataSet>
@@ -282,7 +304,102 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="LDA_2comp_and_kNN_accuracies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>0.88261347099999998</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.96248394100000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="LDA_2comp_and_kNN_results"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.99987650994656296</v>
+          </cell>
+          <cell r="C2">
+            <v>0.98831495832009197</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.66123955038828797</v>
+          </cell>
+          <cell r="C3">
+            <v>0.903158788312036</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.99995671114924001</v>
+          </cell>
+          <cell r="C4">
+            <v>0.99436559950964198</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="LDA_4comp_and_kNN_accuracies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>0.87997458900000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.96710352200000005</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -323,115 +440,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="LDA_2comp_and_kNN_results"/>
+      <sheetName val="SVM_G_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.99987650994656296</v>
-          </cell>
-          <cell r="C2">
-            <v>0.98831495832009197</v>
+            <v>0.93706738819965096</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.66123955038828797</v>
-          </cell>
-          <cell r="C3">
-            <v>0.903158788312036</v>
+            <v>0.96449092783359902</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.99995671114924001</v>
-          </cell>
-          <cell r="C4">
-            <v>0.99436559950964198</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="kNN_accuracies"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="B9">
-            <v>0.95865370889772805</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="LDA_2comp_and_kNN_accuracies"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>0.88261347099999998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.96248394100000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="LDA_4comp_and_kNN_accuracies"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>0.87997458900000003</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.96710352200000005</v>
+            <v>0.96829827775236699</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.99150929201661997</v>
           </cell>
         </row>
       </sheetData>
@@ -740,7 +777,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,135 +786,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>[4]kNN_accuracies!$B$9</f>
+        <f>[1]kNN_accuracies!$B$9</f>
         <v>0.95865370889772805</v>
       </c>
       <c r="C2" s="1">
-        <f>[1]kNN_results!$B$2</f>
+        <f>[2]kNN_results!$B$2</f>
         <v>0.99882903981264604</v>
       </c>
       <c r="D2" s="1">
-        <f>[1]kNN_results!$B$3</f>
+        <f>[2]kNN_results!$B$3</f>
         <v>0.88044527807682504</v>
       </c>
       <c r="E2" s="2">
-        <f>[1]kNN_results!$B$4</f>
+        <f>[2]kNN_results!$B$4</f>
         <v>0.99945002956830298</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f>[5]LDA_2comp_and_kNN_accuracies!$B$19</f>
+        <f>[3]LDA_2comp_and_kNN_accuracies!$B$19</f>
         <v>0.96248394100000001</v>
       </c>
       <c r="C3" s="1">
-        <f>[3]LDA_2comp_and_kNN_results!$C$2</f>
+        <f>[4]LDA_2comp_and_kNN_results!$C$2</f>
         <v>0.98831495832009197</v>
       </c>
       <c r="D3" s="1">
-        <f>[3]LDA_2comp_and_kNN_results!$C$3</f>
+        <f>[4]LDA_2comp_and_kNN_results!$C$3</f>
         <v>0.903158788312036</v>
       </c>
       <c r="E3" s="2">
-        <f>[3]LDA_2comp_and_kNN_results!$C$4</f>
+        <f>[4]LDA_2comp_and_kNN_results!$C$4</f>
         <v>0.99436559950964198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>[6]LDA_4comp_and_kNN_accuracies!$B$10</f>
+        <f>[5]LDA_4comp_and_kNN_accuracies!$B$10</f>
         <v>0.96710352200000005</v>
       </c>
       <c r="C4" s="1">
-        <f>[2]LDA_4comp_and_kNN_results!$C$2</f>
+        <f>[6]LDA_4comp_and_kNN_results!$C$2</f>
         <v>0.98555696840286899</v>
       </c>
       <c r="D4" s="1">
-        <f>[2]LDA_4comp_and_kNN_results!$C$3</f>
+        <f>[6]LDA_4comp_and_kNN_results!$C$3</f>
         <v>0.91761788817655898</v>
       </c>
       <c r="E4" s="2">
-        <f>[2]LDA_4comp_and_kNN_results!$C$4</f>
+        <f>[6]LDA_4comp_and_kNN_results!$C$4</f>
         <v>0.99290370492614899</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <f>[5]LDA_2comp_and_kNN_accuracies!$C$2</f>
+        <f>[3]LDA_2comp_and_kNN_accuracies!$C$2</f>
         <v>0.88261347099999998</v>
       </c>
       <c r="C5" s="1">
-        <f>[3]LDA_2comp_and_kNN_results!$B$2</f>
+        <f>[4]LDA_2comp_and_kNN_results!$B$2</f>
         <v>0.99987650994656296</v>
       </c>
       <c r="D5" s="1">
-        <f>[3]LDA_2comp_and_kNN_results!$B$3</f>
+        <f>[4]LDA_2comp_and_kNN_results!$B$3</f>
         <v>0.66123955038828797</v>
       </c>
       <c r="E5" s="2">
-        <f>[3]LDA_2comp_and_kNN_results!$B$4</f>
+        <f>[4]LDA_2comp_and_kNN_results!$B$4</f>
         <v>0.99995671114924001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>[6]LDA_4comp_and_kNN_accuracies!$C$2</f>
+        <f>[5]LDA_4comp_and_kNN_accuracies!$C$2</f>
         <v>0.87997458900000003</v>
       </c>
       <c r="C6" s="1">
-        <f>[2]LDA_4comp_and_kNN_results!$B$2</f>
+        <f>[6]LDA_4comp_and_kNN_results!$B$2</f>
         <v>0.98159488966829</v>
       </c>
       <c r="D6" s="1">
-        <f>[2]LDA_4comp_and_kNN_results!$B$3</f>
+        <f>[6]LDA_4comp_and_kNN_results!$B$3</f>
         <v>0.66491647489033401</v>
       </c>
       <c r="E6" s="2">
-        <f>[2]LDA_4comp_and_kNN_results!$B$4</f>
+        <f>[6]LDA_4comp_and_kNN_results!$B$4</f>
         <v>0.99342317212116404</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+        <f>[7]SVM_G_performance!$B$5</f>
+        <v>0.99150929201661997</v>
+      </c>
+      <c r="C7" s="3">
+        <f>[7]SVM_G_performance!$B$2</f>
+        <v>0.93706738819965096</v>
+      </c>
+      <c r="D7" s="3">
+        <f>[7]SVM_G_performance!$B$3</f>
+        <v>0.96449092783359902</v>
+      </c>
+      <c r="E7" s="9">
+        <f>[7]SVM_G_performance!$B$4</f>
+        <v>0.96829827775236699</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/Performance/training/Combined_performance.xlsx
+++ b/results/Performance/training/Combined_performance.xlsx
@@ -8,21 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PieterCode\Cu-SX-Fault-Identification\results\Performance\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2262DB-CAA7-43CC-AD5F-4E695726B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551AEAD5-D65E-4D47-8EE9-19CCFDF90814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5A8010D-4915-4E6C-945B-B521AF274DB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Training" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep" sheetId="3" r:id="rId2"/>
+    <sheet name="Full" sheetId="6" r:id="rId3"/>
+    <sheet name="P_Drift" sheetId="7" r:id="rId4"/>
+    <sheet name="Drift" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,8 +59,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
   <si>
     <t>kNN</t>
   </si>
@@ -76,6 +113,105 @@
   <si>
     <t>Spec.</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Separate</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Accuracies</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd</t>
+    </r>
+  </si>
+  <si>
+    <t>Based on best accuracy</t>
+  </si>
+  <si>
+    <t>Best of each</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +243,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -216,12 +361,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -232,6 +454,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,9 +531,805 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.95600171300000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>0.94213525399999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>0.95041994399999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>0.94708893900000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>0.95171700699999995</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>0.95645464300000005</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>0.95493690200000003</v>
+          </cell>
+        </row>
         <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
           <cell r="B9">
-            <v>0.95865370889772805</v>
+            <v>0.95865370900000002</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>0.95617995300000003</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>0.95715217100000005</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>20</v>
+          </cell>
+          <cell r="B12">
+            <v>0.95401329499999998</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>30</v>
+          </cell>
+          <cell r="B13">
+            <v>0.95131268800000002</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>40</v>
+          </cell>
+          <cell r="B14">
+            <v>0.94900559799999995</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>50</v>
+          </cell>
+          <cell r="B15">
+            <v>0.94717072899999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>60</v>
+          </cell>
+          <cell r="B16">
+            <v>0.94538755600000002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>70</v>
+          </cell>
+          <cell r="B17">
+            <v>0.94376564900000004</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>80</v>
+          </cell>
+          <cell r="B18">
+            <v>0.94237213600000003</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>90</v>
+          </cell>
+          <cell r="B19">
+            <v>0.94101951800000005</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>100</v>
+          </cell>
+          <cell r="B20">
+            <v>0.939710881</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>110</v>
+          </cell>
+          <cell r="B21">
+            <v>0.93852955800000004</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>120</v>
+          </cell>
+          <cell r="B22">
+            <v>0.93735672299999995</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>130</v>
+          </cell>
+          <cell r="B23">
+            <v>0.93622401099999997</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>140</v>
+          </cell>
+          <cell r="B24">
+            <v>0.93513451000000003</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>150</v>
+          </cell>
+          <cell r="B25">
+            <v>0.93403652000000004</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>160</v>
+          </cell>
+          <cell r="B26">
+            <v>0.933002573</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>170</v>
+          </cell>
+          <cell r="B27">
+            <v>0.9320427</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>180</v>
+          </cell>
+          <cell r="B28">
+            <v>0.93112526600000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>190</v>
+          </cell>
+          <cell r="B29">
+            <v>0.93024101000000003</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>200</v>
+          </cell>
+          <cell r="B30">
+            <v>0.92941076600000005</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>0.34511749600000002</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0.87411640300000004</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>0.46926130700000002</v>
+          </cell>
+          <cell r="K3">
+            <v>0.234795006</v>
+          </cell>
+          <cell r="L3">
+            <v>0.509164002</v>
+          </cell>
+          <cell r="M3">
+            <v>0.456184331</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>0.42820359499999999</v>
+          </cell>
+          <cell r="K4">
+            <v>0.15936391699999999</v>
+          </cell>
+          <cell r="L4">
+            <v>0.35518512899999999</v>
+          </cell>
+          <cell r="M4">
+            <v>0.44965210900000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>0.40507791300000001</v>
+          </cell>
+          <cell r="K5">
+            <v>0.11921715500000001</v>
+          </cell>
+          <cell r="L5">
+            <v>0.159217256</v>
+          </cell>
+          <cell r="M5">
+            <v>0.50792658899999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0.21136492500000001</v>
+          </cell>
+          <cell r="K6">
+            <v>5.4964273000000001E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>0.168235367</v>
+          </cell>
+          <cell r="M6">
+            <v>0.22295105400000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>0.91231978300000005</v>
+          </cell>
+          <cell r="K7">
+            <v>0.93040293900000004</v>
+          </cell>
+          <cell r="L7">
+            <v>0.93076902399999994</v>
+          </cell>
+          <cell r="M7">
+            <v>0.88071007000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="combined_AUC_values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.5</v>
+          </cell>
+          <cell r="C2">
+            <v>0.5</v>
+          </cell>
+          <cell r="D2">
+            <v>0.5</v>
+          </cell>
+          <cell r="E2">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.63471380899999996</v>
+          </cell>
+          <cell r="C3">
+            <v>0.60472845399999997</v>
+          </cell>
+          <cell r="D3">
+            <v>0.61834152099999995</v>
+          </cell>
+          <cell r="E3">
+            <v>0.64248851100000004</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.56182110100000004</v>
+          </cell>
+          <cell r="C4">
+            <v>0.56690388800000002</v>
+          </cell>
+          <cell r="D4">
+            <v>0.57716932499999996</v>
+          </cell>
+          <cell r="E4">
+            <v>0.57647898099999995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.90999377999999997</v>
+          </cell>
+          <cell r="C5">
+            <v>0.92361093900000002</v>
+          </cell>
+          <cell r="D5">
+            <v>0.91442267499999996</v>
+          </cell>
+          <cell r="E5">
+            <v>0.92442122299999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.96181902699999999</v>
+          </cell>
+          <cell r="C6">
+            <v>0.96571475299999998</v>
+          </cell>
+          <cell r="D6">
+            <v>0.97572775300000003</v>
+          </cell>
+          <cell r="E6">
+            <v>0.97105308099999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.97596959800000005</v>
+          </cell>
+          <cell r="C7">
+            <v>0.99166546300000002</v>
+          </cell>
+          <cell r="D7">
+            <v>0.99139493899999998</v>
+          </cell>
+          <cell r="E7">
+            <v>0.98163177899999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0.93526483699999996</v>
+          </cell>
+          <cell r="N2">
+            <v>0.39302548999999998</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="K3">
+            <v>5.8759489999999998E-2</v>
+          </cell>
+          <cell r="L3">
+            <v>8.6228913000000004E-2</v>
+          </cell>
+          <cell r="M3">
+            <v>5.3302746999999998E-2</v>
+          </cell>
+          <cell r="N3">
+            <v>6.6692643999999995E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>3.4218941000000003E-2</v>
+          </cell>
+          <cell r="L4">
+            <v>4.8323171999999998E-2</v>
+          </cell>
+          <cell r="M4">
+            <v>8.2314581999999997E-2</v>
+          </cell>
+          <cell r="N4">
+            <v>6.8642482000000005E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>4.0128959999999998E-2</v>
+          </cell>
+          <cell r="L5">
+            <v>3.9306287000000002E-2</v>
+          </cell>
+          <cell r="M5">
+            <v>0.225949134</v>
+          </cell>
+          <cell r="N5">
+            <v>0.141672293</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>2.2286015999999999E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>6.9577339000000002E-2</v>
+          </cell>
+          <cell r="M6">
+            <v>0.13749491599999999</v>
+          </cell>
+          <cell r="N6">
+            <v>0.12253193499999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>0.688804784</v>
+          </cell>
+          <cell r="L7">
+            <v>0.19724804900000001</v>
+          </cell>
+          <cell r="M7">
+            <v>0.87789484500000003</v>
+          </cell>
+          <cell r="N7">
+            <v>0.48441634099999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="kNN_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="B26">
+            <v>4.3409481E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>0.15831500800000001</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>0.127698864</v>
+          </cell>
+          <cell r="B152">
+            <v>1.0772501E-2</v>
+          </cell>
+          <cell r="C152">
+            <v>0.91925588300000005</v>
+          </cell>
+          <cell r="D152">
+            <v>0.443946493</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="kNN2_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.99851271500000005</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>0.42989451200000001</v>
+          </cell>
+          <cell r="B199">
+            <v>0.49091568499999999</v>
+          </cell>
+          <cell r="C199">
+            <v>0.61158908999999995</v>
+          </cell>
+          <cell r="D199">
+            <v>0.56649713899999998</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="LDA2_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>0.41864285400000001</v>
+          </cell>
+          <cell r="B11">
+            <v>0.49574643499999999</v>
+          </cell>
+          <cell r="C11">
+            <v>0.64001991700000005</v>
+          </cell>
+          <cell r="D11">
+            <v>0.59048286900000002</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>0.44089726899999998</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="LDA4_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>0.35245565800000001</v>
+          </cell>
+          <cell r="B11">
+            <v>0.53032253399999996</v>
+          </cell>
+          <cell r="C11">
+            <v>0.59700139299999999</v>
+          </cell>
+          <cell r="D11">
+            <v>0.57749198499999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>0.35283120699999998</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="kNN4_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3">
+            <v>0.55706380529218003</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>0.58809564540398596</v>
+          </cell>
+          <cell r="B179">
+            <v>0.33768207167800601</v>
+          </cell>
+          <cell r="C179">
+            <v>0.78068525286172596</v>
+          </cell>
+          <cell r="D179">
+            <v>0.56754169544098998</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="SVM_G_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>0.85105864835340705</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>0.53638515634268302</v>
+          </cell>
+          <cell r="B70">
+            <v>0.86290018832391702</v>
+          </cell>
+          <cell r="C70">
+            <v>0.53985751915522096</v>
+          </cell>
+          <cell r="D70">
+            <v>0.66311569014008398</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>0.94158166644588703</v>
           </cell>
         </row>
       </sheetData>
@@ -316,13 +1382,151 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>0.96820845600000005</v>
+          </cell>
           <cell r="C2">
             <v>0.88261347099999998</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.94892689399999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.96060972</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.95948086600000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.96222622599999996</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.96085817500000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.96170770900000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.96180801800000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.96244150299999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.96206418900000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.96233116399999996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.96240986699999997</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.96245307700000005</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0.96247313800000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.96243069999999997</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.96245847799999995</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0.96247391000000004</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
             <v>0.96248394100000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0.96246542199999996</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.96247545300000004</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.96244073100000005</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0.96245230500000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0.962412182</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0.96239057699999997</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>0.96241758300000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0.96241835499999995</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>0.96241449700000004</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0.96239211999999996</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0.96236974399999997</v>
           </cell>
         </row>
       </sheetData>
@@ -384,13 +1588,151 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>0.97401939000000004</v>
+          </cell>
           <cell r="C2">
             <v>0.87997458900000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.95900401700000004</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.96634580800000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.96450939599999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.96664287500000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.96543146000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.96624164199999996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.96674781300000001</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
             <v>0.96710352200000005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.96679951099999994</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.96684503499999996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.966616641</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.966358155</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0.96611895800000003</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.965919113</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.96570383599999998</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0.96553176900000004</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.96528254099999999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0.96512204800000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.96488207999999998</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.96468377800000005</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0.96448084700000003</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0.96429952100000005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0.96412128100000005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>0.96393146600000001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0.96374859700000004</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>0.96357498600000002</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0.96341217800000001</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0.96325245699999995</v>
           </cell>
         </row>
       </sheetData>
@@ -469,6 +1811,424 @@
         <row r="5">
           <cell r="B5">
             <v>0.99150929201661997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="B2">
+            <v>0.66</v>
+          </cell>
+          <cell r="C2">
+            <v>0.31</v>
+          </cell>
+          <cell r="D2">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="E2">
+            <v>0.95499999999999996</v>
+          </cell>
+          <cell r="F2">
+            <v>0.31</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J2">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
+            <v>0.96199999999999997</v>
+          </cell>
+          <cell r="O2">
+            <v>1</v>
+          </cell>
+          <cell r="P2">
+            <v>1</v>
+          </cell>
+          <cell r="Q2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.59899999999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>0.4</v>
+          </cell>
+          <cell r="D3">
+            <v>0.92600000000000005</v>
+          </cell>
+          <cell r="E3">
+            <v>0.47599999999999998</v>
+          </cell>
+          <cell r="F3">
+            <v>0.28599999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>0.68</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J3">
+            <v>0.65</v>
+          </cell>
+          <cell r="K3">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="L3">
+            <v>0.98</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>0.60099999999999998</v>
+          </cell>
+          <cell r="O3">
+            <v>0.998</v>
+          </cell>
+          <cell r="P3">
+            <v>0.93300000000000005</v>
+          </cell>
+          <cell r="Q3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.7</v>
+          </cell>
+          <cell r="C4">
+            <v>0.52700000000000002</v>
+          </cell>
+          <cell r="D4">
+            <v>0.76100000000000001</v>
+          </cell>
+          <cell r="E4">
+            <v>0.67100000000000004</v>
+          </cell>
+          <cell r="F4">
+            <v>0.36699999999999999</v>
+          </cell>
+          <cell r="G4">
+            <v>0.01</v>
+          </cell>
+          <cell r="H4">
+            <v>0.93200000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0.623</v>
+          </cell>
+          <cell r="K4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="L4">
+            <v>0.97799999999999998</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4">
+            <v>0.73499999999999999</v>
+          </cell>
+          <cell r="O4">
+            <v>0.999</v>
+          </cell>
+          <cell r="P4">
+            <v>0.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.83099999999999996</v>
+          </cell>
+          <cell r="C5">
+            <v>0.94399999999999995</v>
+          </cell>
+          <cell r="D5">
+            <v>0.5</v>
+          </cell>
+          <cell r="E5">
+            <v>0.98599999999999999</v>
+          </cell>
+          <cell r="F5">
+            <v>0.98499999999999999</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="H5">
+            <v>0.92600000000000005</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J5">
+            <v>0.252</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0.86299999999999999</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0.999</v>
+          </cell>
+          <cell r="O5">
+            <v>1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.99</v>
+          </cell>
+          <cell r="Q5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.81599999999999995</v>
+          </cell>
+          <cell r="C6">
+            <v>0.66600000000000004</v>
+          </cell>
+          <cell r="D6">
+            <v>0.56599999999999995</v>
+          </cell>
+          <cell r="E6">
+            <v>0.90200000000000002</v>
+          </cell>
+          <cell r="F6">
+            <v>0.98</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0.999</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J6">
+            <v>0.18</v>
+          </cell>
+          <cell r="K6">
+            <v>2E-3</v>
+          </cell>
+          <cell r="L6">
+            <v>0.86299999999999999</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0.999</v>
+          </cell>
+          <cell r="O6">
+            <v>0.92800000000000005</v>
+          </cell>
+          <cell r="P6">
+            <v>1</v>
+          </cell>
+          <cell r="Q6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.86699999999999999</v>
+          </cell>
+          <cell r="C7">
+            <v>0.79200000000000004</v>
+          </cell>
+          <cell r="D7">
+            <v>0.80300000000000005</v>
+          </cell>
+          <cell r="E7">
+            <v>0.89900000000000002</v>
+          </cell>
+          <cell r="F7">
+            <v>0.70699999999999996</v>
+          </cell>
+          <cell r="G7">
+            <v>0.626</v>
+          </cell>
+          <cell r="H7">
+            <v>0.97199999999999998</v>
+          </cell>
+          <cell r="I7">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="J7">
+            <v>0.751</v>
+          </cell>
+          <cell r="K7">
+            <v>0.22800000000000001</v>
+          </cell>
+          <cell r="L7">
+            <v>0.877</v>
+          </cell>
+          <cell r="M7">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="N7">
+            <v>0.92300000000000004</v>
+          </cell>
+          <cell r="O7">
+            <v>1</v>
+          </cell>
+          <cell r="P7">
+            <v>0.996</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.996</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="combined_AUC_values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.49132443100000001</v>
+          </cell>
+          <cell r="C2">
+            <v>0.50021507099999996</v>
+          </cell>
+          <cell r="D2">
+            <v>0.49997214800000001</v>
+          </cell>
+          <cell r="E2">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.62460575200000001</v>
+          </cell>
+          <cell r="C3">
+            <v>0.53035146300000002</v>
+          </cell>
+          <cell r="D3">
+            <v>0.96386615399999997</v>
+          </cell>
+          <cell r="E3">
+            <v>0.515386554</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.68850862400000001</v>
+          </cell>
+          <cell r="C4">
+            <v>0.47858066199999999</v>
+          </cell>
+          <cell r="D4">
+            <v>0.98765947600000004</v>
+          </cell>
+          <cell r="E4">
+            <v>0.50619098100000004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.74755285400000004</v>
+          </cell>
+          <cell r="C5">
+            <v>0.41790993900000001</v>
+          </cell>
+          <cell r="D5">
+            <v>0.98748730200000001</v>
+          </cell>
+          <cell r="E5">
+            <v>0.67031104799999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.61444791200000004</v>
+          </cell>
+          <cell r="C6">
+            <v>0.30065280700000002</v>
+          </cell>
+          <cell r="D6">
+            <v>0.99418736399999996</v>
+          </cell>
+          <cell r="E6">
+            <v>0.60462996099999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.89681086200000004</v>
+          </cell>
+          <cell r="C7">
+            <v>0.648885559</v>
+          </cell>
+          <cell r="D7">
+            <v>0.97363741100000001</v>
+          </cell>
+          <cell r="E7">
+            <v>0.40273058</v>
           </cell>
         </row>
       </sheetData>
@@ -774,10 +2534,1188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D1E38D-8F38-4250-8C0B-3B9EB50F15AB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="N1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>[1]kNN_accuracies!$B$9</f>
+        <v>0.95865370900000002</v>
+      </c>
+      <c r="C2" s="1">
+        <f>[2]kNN_results!$B$2</f>
+        <v>0.99882903981264604</v>
+      </c>
+      <c r="D2" s="1">
+        <f>[2]kNN_results!$B$3</f>
+        <v>0.88044527807682504</v>
+      </c>
+      <c r="E2" s="2">
+        <f>[2]kNN_results!$B$4</f>
+        <v>0.99945002956830298</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>[3]LDA_2comp_and_kNN_accuracies!$B$19</f>
+        <v>0.96248394100000001</v>
+      </c>
+      <c r="C3" s="1">
+        <f>[4]LDA_2comp_and_kNN_results!$C$2</f>
+        <v>0.98831495832009197</v>
+      </c>
+      <c r="D3" s="1">
+        <f>[4]LDA_2comp_and_kNN_results!$C$3</f>
+        <v>0.903158788312036</v>
+      </c>
+      <c r="E3" s="2">
+        <f>[4]LDA_2comp_and_kNN_results!$C$4</f>
+        <v>0.99436559950964198</v>
+      </c>
+      <c r="I3" s="7">
+        <f>[1]kNN_accuracies!A2</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="17">
+        <f>[1]kNN_accuracies!B2</f>
+        <v>0.95600171300000003</v>
+      </c>
+      <c r="K3" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B2</f>
+        <v>0.96820845600000005</v>
+      </c>
+      <c r="L3" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B2</f>
+        <v>0.97401939000000004</v>
+      </c>
+      <c r="N3" s="7">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="17">
+        <f>J3*100</f>
+        <v>95.6001713</v>
+      </c>
+      <c r="P3" s="17">
+        <f>K3*100</f>
+        <v>96.820845599999998</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>L3*100</f>
+        <v>97.401938999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>[5]LDA_4comp_and_kNN_accuracies!$B$10</f>
+        <v>0.96710352200000005</v>
+      </c>
+      <c r="C4" s="1">
+        <f>[6]LDA_4comp_and_kNN_results!$C$2</f>
+        <v>0.98555696840286899</v>
+      </c>
+      <c r="D4" s="1">
+        <f>[6]LDA_4comp_and_kNN_results!$C$3</f>
+        <v>0.91761788817655898</v>
+      </c>
+      <c r="E4" s="2">
+        <f>[6]LDA_4comp_and_kNN_results!$C$4</f>
+        <v>0.99290370492614899</v>
+      </c>
+      <c r="I4" s="7">
+        <f>[1]kNN_accuracies!A3</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="17">
+        <f>[1]kNN_accuracies!B3</f>
+        <v>0.94213525399999998</v>
+      </c>
+      <c r="K4" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B3</f>
+        <v>0.94892689399999997</v>
+      </c>
+      <c r="L4" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B3</f>
+        <v>0.95900401700000004</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N31" si="0">I4</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="17">
+        <f t="shared" ref="O4:O31" si="1">J4*100</f>
+        <v>94.213525399999995</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" ref="P4:P31" si="2">K4*100</f>
+        <v>94.892689399999995</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" ref="Q4:Q31" si="3">L4*100</f>
+        <v>95.900401700000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f>[3]LDA_2comp_and_kNN_accuracies!$C$2</f>
+        <v>0.88261347099999998</v>
+      </c>
+      <c r="C5" s="1">
+        <f>[4]LDA_2comp_and_kNN_results!$B$2</f>
+        <v>0.99987650994656296</v>
+      </c>
+      <c r="D5" s="1">
+        <f>[4]LDA_2comp_and_kNN_results!$B$3</f>
+        <v>0.66123955038828797</v>
+      </c>
+      <c r="E5" s="2">
+        <f>[4]LDA_2comp_and_kNN_results!$B$4</f>
+        <v>0.99995671114924001</v>
+      </c>
+      <c r="I5" s="7">
+        <f>[1]kNN_accuracies!A4</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="17">
+        <f>[1]kNN_accuracies!B4</f>
+        <v>0.95041994399999996</v>
+      </c>
+      <c r="K5" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B4</f>
+        <v>0.96060972</v>
+      </c>
+      <c r="L5" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B4</f>
+        <v>0.96634580800000003</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="17">
+        <f t="shared" si="1"/>
+        <v>95.041994399999993</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="2"/>
+        <v>96.060972000000007</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="3"/>
+        <v>96.634580800000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f>[5]LDA_4comp_and_kNN_accuracies!$C$2</f>
+        <v>0.87997458900000003</v>
+      </c>
+      <c r="C6" s="1">
+        <f>[6]LDA_4comp_and_kNN_results!$B$2</f>
+        <v>0.98159488966829</v>
+      </c>
+      <c r="D6" s="1">
+        <f>[6]LDA_4comp_and_kNN_results!$B$3</f>
+        <v>0.66491647489033401</v>
+      </c>
+      <c r="E6" s="2">
+        <f>[6]LDA_4comp_and_kNN_results!$B$4</f>
+        <v>0.99342317212116404</v>
+      </c>
+      <c r="I6" s="7">
+        <f>[1]kNN_accuracies!A5</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="17">
+        <f>[1]kNN_accuracies!B5</f>
+        <v>0.94708893900000002</v>
+      </c>
+      <c r="K6" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B5</f>
+        <v>0.95948086600000004</v>
+      </c>
+      <c r="L6" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B5</f>
+        <v>0.96450939599999996</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="1"/>
+        <v>94.708893900000007</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="2"/>
+        <v>95.948086600000011</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="3"/>
+        <v>96.450939599999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f>[7]SVM_G_performance!$B$5</f>
+        <v>0.99150929201661997</v>
+      </c>
+      <c r="C7" s="3">
+        <f>[7]SVM_G_performance!$B$2</f>
+        <v>0.93706738819965096</v>
+      </c>
+      <c r="D7" s="3">
+        <f>[7]SVM_G_performance!$B$3</f>
+        <v>0.96449092783359902</v>
+      </c>
+      <c r="E7" s="9">
+        <f>[7]SVM_G_performance!$B$4</f>
+        <v>0.96829827775236699</v>
+      </c>
+      <c r="I7" s="7">
+        <f>[1]kNN_accuracies!A6</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="17">
+        <f>[1]kNN_accuracies!B6</f>
+        <v>0.95171700699999995</v>
+      </c>
+      <c r="K7" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B6</f>
+        <v>0.96222622599999996</v>
+      </c>
+      <c r="L7" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B6</f>
+        <v>0.96664287500000001</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O7" s="17">
+        <f t="shared" si="1"/>
+        <v>95.171700699999988</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="2"/>
+        <v>96.222622599999994</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="3"/>
+        <v>96.6642875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <f>[1]kNN_accuracies!A7</f>
+        <v>6</v>
+      </c>
+      <c r="J8" s="17">
+        <f>[1]kNN_accuracies!B7</f>
+        <v>0.95645464300000005</v>
+      </c>
+      <c r="K8" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B7</f>
+        <v>0.96085817500000004</v>
+      </c>
+      <c r="L8" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B7</f>
+        <v>0.96543146000000002</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O8" s="17">
+        <f t="shared" si="1"/>
+        <v>95.6454643</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="2"/>
+        <v>96.085817500000005</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="3"/>
+        <v>96.543146000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <f>[1]kNN_accuracies!A8</f>
+        <v>7</v>
+      </c>
+      <c r="J9" s="17">
+        <f>[1]kNN_accuracies!B8</f>
+        <v>0.95493690200000003</v>
+      </c>
+      <c r="K9" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B8</f>
+        <v>0.96170770900000002</v>
+      </c>
+      <c r="L9" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B8</f>
+        <v>0.96624164199999996</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" si="1"/>
+        <v>95.493690200000003</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="2"/>
+        <v>96.170770900000008</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="3"/>
+        <v>96.624164199999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <f>[1]kNN_accuracies!A9</f>
+        <v>8</v>
+      </c>
+      <c r="J10" s="19">
+        <f>[1]kNN_accuracies!B9</f>
+        <v>0.95865370900000002</v>
+      </c>
+      <c r="K10" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B9</f>
+        <v>0.96180801800000004</v>
+      </c>
+      <c r="L10" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B9</f>
+        <v>0.96674781300000001</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="1"/>
+        <v>95.865370900000002</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="2"/>
+        <v>96.180801799999998</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="3"/>
+        <v>96.674781300000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I11" s="7">
+        <f>[1]kNN_accuracies!A10</f>
+        <v>9</v>
+      </c>
+      <c r="J11" s="17">
+        <f>[1]kNN_accuracies!B10</f>
+        <v>0.95617995300000003</v>
+      </c>
+      <c r="K11" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B10</f>
+        <v>0.96244150299999998</v>
+      </c>
+      <c r="L11" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B10</f>
+        <v>0.96710352200000005</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="1"/>
+        <v>95.617995300000004</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="2"/>
+        <v>96.244150300000001</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="3"/>
+        <v>96.710352200000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="7">
+        <f>[1]kNN_accuracies!A11</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="17">
+        <f>[1]kNN_accuracies!B11</f>
+        <v>0.95715217100000005</v>
+      </c>
+      <c r="K12" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B11</f>
+        <v>0.96206418900000001</v>
+      </c>
+      <c r="L12" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B11</f>
+        <v>0.96679951099999994</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="17">
+        <f t="shared" si="1"/>
+        <v>95.715217100000004</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="2"/>
+        <v>96.206418900000003</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="3"/>
+        <v>96.679951099999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="7">
+        <f>[1]kNN_accuracies!A12</f>
+        <v>20</v>
+      </c>
+      <c r="J13" s="17">
+        <f>[1]kNN_accuracies!B12</f>
+        <v>0.95401329499999998</v>
+      </c>
+      <c r="K13" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B12</f>
+        <v>0.96233116399999996</v>
+      </c>
+      <c r="L13" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B12</f>
+        <v>0.96684503499999996</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="1"/>
+        <v>95.401329500000003</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="2"/>
+        <v>96.2331164</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="3"/>
+        <v>96.684503499999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="7">
+        <f>[1]kNN_accuracies!A13</f>
+        <v>30</v>
+      </c>
+      <c r="J14" s="17">
+        <f>[1]kNN_accuracies!B13</f>
+        <v>0.95131268800000002</v>
+      </c>
+      <c r="K14" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B13</f>
+        <v>0.96240986699999997</v>
+      </c>
+      <c r="L14" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B13</f>
+        <v>0.966616641</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" si="1"/>
+        <v>95.131268800000001</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" si="2"/>
+        <v>96.240986699999993</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="3"/>
+        <v>96.661664099999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="7">
+        <f>[1]kNN_accuracies!A14</f>
+        <v>40</v>
+      </c>
+      <c r="J15" s="17">
+        <f>[1]kNN_accuracies!B14</f>
+        <v>0.94900559799999995</v>
+      </c>
+      <c r="K15" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B14</f>
+        <v>0.96245307700000005</v>
+      </c>
+      <c r="L15" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B14</f>
+        <v>0.966358155</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O15" s="17">
+        <f t="shared" si="1"/>
+        <v>94.900559799999996</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="2"/>
+        <v>96.245307699999998</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="3"/>
+        <v>96.635815500000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" s="7">
+        <f>[1]kNN_accuracies!A15</f>
+        <v>50</v>
+      </c>
+      <c r="J16" s="17">
+        <f>[1]kNN_accuracies!B15</f>
+        <v>0.94717072899999999</v>
+      </c>
+      <c r="K16" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B15</f>
+        <v>0.96247313800000001</v>
+      </c>
+      <c r="L16" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B15</f>
+        <v>0.96611895800000003</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="1"/>
+        <v>94.717072900000005</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="2"/>
+        <v>96.247313800000001</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="3"/>
+        <v>96.611895799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I17" s="7">
+        <f>[1]kNN_accuracies!A16</f>
+        <v>60</v>
+      </c>
+      <c r="J17" s="17">
+        <f>[1]kNN_accuracies!B16</f>
+        <v>0.94538755600000002</v>
+      </c>
+      <c r="K17" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B16</f>
+        <v>0.96243069999999997</v>
+      </c>
+      <c r="L17" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B16</f>
+        <v>0.965919113</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O17" s="17">
+        <f t="shared" si="1"/>
+        <v>94.538755600000002</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="2"/>
+        <v>96.243070000000003</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="3"/>
+        <v>96.591911299999992</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="7">
+        <f>[1]kNN_accuracies!A17</f>
+        <v>70</v>
+      </c>
+      <c r="J18" s="17">
+        <f>[1]kNN_accuracies!B17</f>
+        <v>0.94376564900000004</v>
+      </c>
+      <c r="K18" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B17</f>
+        <v>0.96245847799999995</v>
+      </c>
+      <c r="L18" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B17</f>
+        <v>0.96570383599999998</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="O18" s="17">
+        <f t="shared" si="1"/>
+        <v>94.376564900000005</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="2"/>
+        <v>96.245847799999993</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="3"/>
+        <v>96.5703836</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I19" s="7">
+        <f>[1]kNN_accuracies!A18</f>
+        <v>80</v>
+      </c>
+      <c r="J19" s="17">
+        <f>[1]kNN_accuracies!B18</f>
+        <v>0.94237213600000003</v>
+      </c>
+      <c r="K19" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B18</f>
+        <v>0.96247391000000004</v>
+      </c>
+      <c r="L19" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B18</f>
+        <v>0.96553176900000004</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" si="1"/>
+        <v>94.237213600000004</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="2"/>
+        <v>96.247391000000007</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="3"/>
+        <v>96.553176900000011</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
+        <f>[1]kNN_accuracies!A19</f>
+        <v>90</v>
+      </c>
+      <c r="J20" s="17">
+        <f>[1]kNN_accuracies!B19</f>
+        <v>0.94101951800000005</v>
+      </c>
+      <c r="K20" s="19">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B19</f>
+        <v>0.96248394100000001</v>
+      </c>
+      <c r="L20" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B19</f>
+        <v>0.96528254099999999</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="O20" s="17">
+        <f t="shared" si="1"/>
+        <v>94.101951800000009</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="2"/>
+        <v>96.248394099999999</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="3"/>
+        <v>96.528254099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="7">
+        <f>[1]kNN_accuracies!A20</f>
+        <v>100</v>
+      </c>
+      <c r="J21" s="17">
+        <f>[1]kNN_accuracies!B20</f>
+        <v>0.939710881</v>
+      </c>
+      <c r="K21" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B20</f>
+        <v>0.96246542199999996</v>
+      </c>
+      <c r="L21" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B20</f>
+        <v>0.96512204800000001</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="1"/>
+        <v>93.971088100000003</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="2"/>
+        <v>96.246542199999993</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="3"/>
+        <v>96.512204800000006</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="7">
+        <f>[1]kNN_accuracies!A21</f>
+        <v>110</v>
+      </c>
+      <c r="J22" s="17">
+        <f>[1]kNN_accuracies!B21</f>
+        <v>0.93852955800000004</v>
+      </c>
+      <c r="K22" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B21</f>
+        <v>0.96247545300000004</v>
+      </c>
+      <c r="L22" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B21</f>
+        <v>0.96488207999999998</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="O22" s="17">
+        <f t="shared" si="1"/>
+        <v>93.852955800000004</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="2"/>
+        <v>96.247545299999999</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="3"/>
+        <v>96.488208</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="7">
+        <f>[1]kNN_accuracies!A22</f>
+        <v>120</v>
+      </c>
+      <c r="J23" s="17">
+        <f>[1]kNN_accuracies!B22</f>
+        <v>0.93735672299999995</v>
+      </c>
+      <c r="K23" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B22</f>
+        <v>0.96244073100000005</v>
+      </c>
+      <c r="L23" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B22</f>
+        <v>0.96468377800000005</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O23" s="17">
+        <f t="shared" si="1"/>
+        <v>93.73567229999999</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="2"/>
+        <v>96.244073100000008</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="3"/>
+        <v>96.468377799999999</v>
+      </c>
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24" s="7">
+        <f>[1]kNN_accuracies!A23</f>
+        <v>130</v>
+      </c>
+      <c r="J24" s="17">
+        <f>[1]kNN_accuracies!B23</f>
+        <v>0.93622401099999997</v>
+      </c>
+      <c r="K24" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B23</f>
+        <v>0.96245230500000001</v>
+      </c>
+      <c r="L24" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B23</f>
+        <v>0.96448084700000003</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="O24" s="17">
+        <f t="shared" si="1"/>
+        <v>93.62240109999999</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="2"/>
+        <v>96.245230500000005</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" si="3"/>
+        <v>96.44808470000001</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25" s="7">
+        <f>[1]kNN_accuracies!A24</f>
+        <v>140</v>
+      </c>
+      <c r="J25" s="17">
+        <f>[1]kNN_accuracies!B24</f>
+        <v>0.93513451000000003</v>
+      </c>
+      <c r="K25" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B24</f>
+        <v>0.962412182</v>
+      </c>
+      <c r="L25" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B24</f>
+        <v>0.96429952100000005</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="O25" s="17">
+        <f t="shared" si="1"/>
+        <v>93.513451000000003</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="2"/>
+        <v>96.241218200000006</v>
+      </c>
+      <c r="Q25" s="18">
+        <f t="shared" si="3"/>
+        <v>96.429952100000008</v>
+      </c>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I26" s="7">
+        <f>[1]kNN_accuracies!A25</f>
+        <v>150</v>
+      </c>
+      <c r="J26" s="17">
+        <f>[1]kNN_accuracies!B25</f>
+        <v>0.93403652000000004</v>
+      </c>
+      <c r="K26" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B25</f>
+        <v>0.96239057699999997</v>
+      </c>
+      <c r="L26" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B25</f>
+        <v>0.96412128100000005</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" si="1"/>
+        <v>93.403652000000008</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="2"/>
+        <v>96.239057700000004</v>
+      </c>
+      <c r="Q26" s="18">
+        <f t="shared" si="3"/>
+        <v>96.412128100000004</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="7">
+        <f>[1]kNN_accuracies!A26</f>
+        <v>160</v>
+      </c>
+      <c r="J27" s="17">
+        <f>[1]kNN_accuracies!B26</f>
+        <v>0.933002573</v>
+      </c>
+      <c r="K27" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B26</f>
+        <v>0.96241758300000002</v>
+      </c>
+      <c r="L27" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B26</f>
+        <v>0.96393146600000001</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" si="1"/>
+        <v>93.300257299999998</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="2"/>
+        <v>96.241758300000001</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="3"/>
+        <v>96.393146599999994</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="7">
+        <f>[1]kNN_accuracies!A27</f>
+        <v>170</v>
+      </c>
+      <c r="J28" s="17">
+        <f>[1]kNN_accuracies!B27</f>
+        <v>0.9320427</v>
+      </c>
+      <c r="K28" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B27</f>
+        <v>0.96241835499999995</v>
+      </c>
+      <c r="L28" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B27</f>
+        <v>0.96374859700000004</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="O28" s="17">
+        <f t="shared" si="1"/>
+        <v>93.204269999999994</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="2"/>
+        <v>96.241835499999993</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="3"/>
+        <v>96.374859700000002</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="7">
+        <f>[1]kNN_accuracies!A28</f>
+        <v>180</v>
+      </c>
+      <c r="J29" s="17">
+        <f>[1]kNN_accuracies!B28</f>
+        <v>0.93112526600000001</v>
+      </c>
+      <c r="K29" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B28</f>
+        <v>0.96241449700000004</v>
+      </c>
+      <c r="L29" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B28</f>
+        <v>0.96357498600000002</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="O29" s="17">
+        <f t="shared" si="1"/>
+        <v>93.112526599999995</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="2"/>
+        <v>96.241449700000004</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="3"/>
+        <v>96.3574986</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I30" s="7">
+        <f>[1]kNN_accuracies!A29</f>
+        <v>190</v>
+      </c>
+      <c r="J30" s="17">
+        <f>[1]kNN_accuracies!B29</f>
+        <v>0.93024101000000003</v>
+      </c>
+      <c r="K30" s="17">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B29</f>
+        <v>0.96239211999999996</v>
+      </c>
+      <c r="L30" s="18">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B29</f>
+        <v>0.96341217800000001</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="O30" s="17">
+        <f t="shared" si="1"/>
+        <v>93.024101000000002</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="2"/>
+        <v>96.239211999999995</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="3"/>
+        <v>96.341217799999995</v>
+      </c>
+    </row>
+    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I31" s="8">
+        <f>[1]kNN_accuracies!A30</f>
+        <v>200</v>
+      </c>
+      <c r="J31" s="20">
+        <f>[1]kNN_accuracies!B30</f>
+        <v>0.92941076600000005</v>
+      </c>
+      <c r="K31" s="20">
+        <f>[3]LDA_2comp_and_kNN_accuracies!B30</f>
+        <v>0.96236974399999997</v>
+      </c>
+      <c r="L31" s="21">
+        <f>[5]LDA_4comp_and_kNN_accuracies!B30</f>
+        <v>0.96325245699999995</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="O31" s="20">
+        <f t="shared" si="1"/>
+        <v>92.941076600000002</v>
+      </c>
+      <c r="P31" s="20">
+        <f t="shared" si="2"/>
+        <v>96.236974399999994</v>
+      </c>
+      <c r="Q31" s="21">
+        <f t="shared" si="3"/>
+        <v>96.325245699999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C7F6D7-2EA2-4339-9FE5-8DD23552ED6E}">
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,145 +3723,1425 @@
     <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="S1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>[8]performance!B2</f>
+        <v>0.66</v>
+      </c>
+      <c r="C3" s="1">
+        <f>[8]performance!C2</f>
+        <v>0.31</v>
+      </c>
+      <c r="D3" s="1">
+        <f>[8]performance!D2</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>[8]performance!E2</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25" cm="1">
+        <f t="array" ref="H3:K8">[8]performance!$F$2:$I$7</f>
+        <v>0.31</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" cm="1">
+        <f t="array" ref="N3:Q8">[8]performance!$J$2:$M$7</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" cm="1">
+        <f t="array" ref="T3:W8">[8]performance!$N$2:$Q$7</f>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f>[8]performance!B3</f>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <f>[8]performance!C3</f>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1">
+        <f>[8]performance!D3</f>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E4" s="2">
+        <f>[8]performance!E3</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <f>[8]performance!B4</f>
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="1">
+        <f>[8]performance!C4</f>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <f>[8]performance!D4</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f>[8]performance!E4</f>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f>[8]performance!B5</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <f>[8]performance!C5</f>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <f>[8]performance!D5</f>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <f>[8]performance!E5</f>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <f>[8]performance!B6</f>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <f>[8]performance!C6</f>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <f>[8]performance!D6</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E7" s="2">
+        <f>[8]performance!E6</f>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f>[8]performance!B7</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <f>[8]performance!C7</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <f>[8]performance!D7</f>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E8" s="9">
+        <f>[8]performance!E7</f>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.751</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="30" cm="1">
+        <f t="array" ref="B13:E18">[9]combined_AUC_values!$B$2:$E$7</f>
+        <v>0.49132443100000001</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.50021507099999996</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.49997214800000001</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.62460575200000001</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.53035146300000002</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.96386615399999997</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.515386554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.68850862400000001</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.47858066199999999</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.98765947600000004</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.50619098100000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33">
+        <v>0.74755285400000004</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.41790993900000001</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.98748730200000001</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.67031104799999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.61444791200000004</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.30065280700000002</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.99418736399999996</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.60462996099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="34">
+        <v>0.89681086200000004</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.648885559</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.97363741100000001</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.40273058</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F45016-4521-4FE6-B829-2AC7D139F09E}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28">
+        <f>[13]kNN_performance!$D$152</f>
+        <v>0.443946493</v>
+      </c>
+      <c r="C3" s="1">
+        <f>[13]kNN_performance!$C$152</f>
+        <v>0.91925588300000005</v>
+      </c>
+      <c r="D3" s="1">
+        <f>[13]kNN_performance!$B$152</f>
+        <v>1.0772501E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>[13]kNN_performance!$A$152</f>
+        <v>0.127698864</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <f>[13]kNN_performance!$D$152</f>
+        <v>0.443946493</v>
+      </c>
+      <c r="I3" s="26">
+        <f>[13]kNN_performance!$A$77</f>
+        <v>0.15831500800000001</v>
+      </c>
+      <c r="J3" s="40">
+        <f>[13]kNN_performance!$B$26</f>
+        <v>4.3409481E-2</v>
+      </c>
+      <c r="K3" s="27">
+        <f>[13]kNN_performance!$C$201</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28">
+        <f>[14]kNN2_performance!$D$199</f>
+        <v>0.56649713899999998</v>
+      </c>
+      <c r="C4" s="1">
+        <f>[14]kNN2_performance!$A$199</f>
+        <v>0.42989451200000001</v>
+      </c>
+      <c r="D4" s="1">
+        <f>[14]kNN2_performance!$B$199</f>
+        <v>0.49091568499999999</v>
+      </c>
+      <c r="E4" s="2">
+        <f>[14]kNN2_performance!$C$199</f>
+        <v>0.61158908999999995</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <f>[14]kNN2_performance!$D$199</f>
+        <v>0.56649713899999998</v>
+      </c>
+      <c r="I4" s="1">
+        <f>[14]kNN2_performance!$A$199</f>
+        <v>0.42989451200000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f>[14]kNN2_performance!$B$2</f>
+        <v>0.99851271500000005</v>
+      </c>
+      <c r="K4" s="2">
+        <f>[14]kNN2_performance!$C$201</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28">
+        <f>[17]kNN4_performance!$D$179</f>
+        <v>0.56754169544098998</v>
+      </c>
+      <c r="C5" s="1">
+        <f>[17]kNN4_performance!$A$179</f>
+        <v>0.58809564540398596</v>
+      </c>
+      <c r="D5" s="1">
+        <f>[17]kNN4_performance!$B$179</f>
+        <v>0.33768207167800601</v>
+      </c>
+      <c r="E5" s="2">
+        <f>[17]kNN4_performance!$C$179</f>
+        <v>0.78068525286172596</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="28">
+        <f>[17]kNN4_performance!$D$179</f>
+        <v>0.56754169544098998</v>
+      </c>
+      <c r="I5" s="1">
+        <f>[17]kNN4_performance!$A$179</f>
+        <v>0.58809564540398596</v>
+      </c>
+      <c r="J5" s="1">
+        <f>[17]kNN4_performance!$B$3</f>
+        <v>0.55706380529218003</v>
+      </c>
+      <c r="K5" s="2">
+        <f>[17]kNN4_performance!$C$201</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28">
+        <f>[15]LDA2_performance!$D$11</f>
+        <v>0.59048286900000002</v>
+      </c>
+      <c r="C6" s="1">
+        <f>[15]LDA2_performance!$A$11</f>
+        <v>0.41864285400000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f>[15]LDA2_performance!$B$11</f>
+        <v>0.49574643499999999</v>
+      </c>
+      <c r="E6" s="2">
+        <f>[15]LDA2_performance!$C$11</f>
+        <v>0.64001991700000005</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="28">
+        <f>[15]LDA2_performance!$D$11</f>
+        <v>0.59048286900000002</v>
+      </c>
+      <c r="I6" s="1">
+        <f>[15]LDA2_performance!$A$23</f>
+        <v>0.44089726899999998</v>
+      </c>
+      <c r="J6" s="1">
+        <f>[15]LDA2_performance!$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <f>[15]LDA2_performance!$C$201</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28">
+        <f>[16]LDA4_performance!$D$11</f>
+        <v>0.57749198499999999</v>
+      </c>
+      <c r="C7" s="1">
+        <f>[16]LDA4_performance!$A$11</f>
+        <v>0.35245565800000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f>[16]LDA4_performance!$B$11</f>
+        <v>0.53032253399999996</v>
+      </c>
+      <c r="E7" s="2">
+        <f>[16]LDA4_performance!$C$11</f>
+        <v>0.59700139299999999</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="28">
+        <f>[16]LDA4_performance!$D$11</f>
+        <v>0.57749198499999999</v>
+      </c>
+      <c r="I7" s="1">
+        <f>[16]LDA4_performance!$A$12</f>
+        <v>0.35283120699999998</v>
+      </c>
+      <c r="J7" s="1">
+        <f>[16]LDA4_performance!$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <f>[16]LDA4_performance!$C$201</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29">
+        <f>[18]SVM_G_performance!$D$70</f>
+        <v>0.66311569014008398</v>
+      </c>
+      <c r="C8" s="3">
+        <f>[18]SVM_G_performance!$A$70</f>
+        <v>0.53638515634268302</v>
+      </c>
+      <c r="D8" s="3">
+        <f>[18]SVM_G_performance!$B$70</f>
+        <v>0.86290018832391702</v>
+      </c>
+      <c r="E8" s="9">
+        <f>[18]SVM_G_performance!$C$70</f>
+        <v>0.53985751915522096</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="29">
+        <f>[18]SVM_G_performance!$D$70</f>
+        <v>0.66311569014008398</v>
+      </c>
+      <c r="I8" s="3">
+        <f>[18]SVM_G_performance!$A$3</f>
+        <v>0.85105864835340705</v>
+      </c>
+      <c r="J8" s="3">
+        <f>[18]SVM_G_performance!$B$201</f>
+        <v>0.94158166644588703</v>
+      </c>
+      <c r="K8" s="9">
+        <f>[18]SVM_G_performance!$C$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0.66</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J15" s="37">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0.59</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="J17" s="37">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="38">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J18" s="39">
+        <v>0.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D65DC3E-24EA-4372-96E6-E1A188339F87}">
+  <dimension ref="A2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>[1]kNN_accuracies!$B$9</f>
-        <v>0.95865370889772805</v>
-      </c>
-      <c r="C2" s="1">
-        <f>[2]kNN_results!$B$2</f>
-        <v>0.99882903981264604</v>
-      </c>
-      <c r="D2" s="1">
-        <f>[2]kNN_results!$B$3</f>
-        <v>0.88044527807682504</v>
-      </c>
-      <c r="E2" s="2">
-        <f>[2]kNN_results!$B$4</f>
-        <v>0.99945002956830298</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>[3]LDA_2comp_and_kNN_accuracies!$B$19</f>
-        <v>0.96248394100000001</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" cm="1">
+        <f t="array" ref="B3:E8">[10]performance!$J$2:$M$7</f>
+        <v>0.34511749600000002</v>
       </c>
       <c r="C3" s="1">
-        <f>[4]LDA_2comp_and_kNN_results!$C$2</f>
-        <v>0.98831495832009197</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f>[4]LDA_2comp_and_kNN_results!$C$3</f>
-        <v>0.903158788312036</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>[4]LDA_2comp_and_kNN_results!$C$4</f>
-        <v>0.99436559950964198</v>
+        <v>0.87411640300000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f>[5]LDA_4comp_and_kNN_accuracies!$B$10</f>
-        <v>0.96710352200000005</v>
+        <v>0.46926130700000002</v>
       </c>
       <c r="C4" s="1">
-        <f>[6]LDA_4comp_and_kNN_results!$C$2</f>
-        <v>0.98555696840286899</v>
+        <v>0.234795006</v>
       </c>
       <c r="D4" s="1">
-        <f>[6]LDA_4comp_and_kNN_results!$C$3</f>
-        <v>0.91761788817655898</v>
+        <v>0.509164002</v>
       </c>
       <c r="E4" s="2">
-        <f>[6]LDA_4comp_and_kNN_results!$C$4</f>
-        <v>0.99290370492614899</v>
+        <v>0.456184331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <f>[3]LDA_2comp_and_kNN_accuracies!$C$2</f>
-        <v>0.88261347099999998</v>
+        <v>0.42820359499999999</v>
       </c>
       <c r="C5" s="1">
-        <f>[4]LDA_2comp_and_kNN_results!$B$2</f>
-        <v>0.99987650994656296</v>
+        <v>0.15936391699999999</v>
       </c>
       <c r="D5" s="1">
-        <f>[4]LDA_2comp_and_kNN_results!$B$3</f>
-        <v>0.66123955038828797</v>
+        <v>0.35518512899999999</v>
       </c>
       <c r="E5" s="2">
-        <f>[4]LDA_2comp_and_kNN_results!$B$4</f>
-        <v>0.99995671114924001</v>
+        <v>0.44965210900000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.40507791300000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.11921715500000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.159217256</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.50792658899999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.21136492500000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.4964273000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.168235367</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22295105400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.91231978300000005</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.93040293900000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.93076902399999994</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.88071007000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="30" cm="1">
+        <f t="array" ref="B13:E18">[11]combined_AUC_values!$B$2:$E$7</f>
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.63471380899999996</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.60472845399999997</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.61834152099999995</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.64248851100000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.56182110100000004</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.56690388800000002</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.57716932499999996</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.57647898099999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33">
+        <v>0.90999377999999997</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.92361093900000002</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.91442267499999996</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.92442122299999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.96181902699999999</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.96571475299999998</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.97572775300000003</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.97105308099999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="34">
+        <v>0.97596959800000005</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.99166546300000002</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.99139493899999998</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.98163177899999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352D9225-2128-4D39-ABD3-3F7C32528386}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" cm="1">
+        <f t="array" ref="B3:E8">[12]performance!$K$2:$N$7</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.93526483699999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.39302548999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.8759489999999998E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.6228913000000004E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.3302746999999998E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.6692643999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.4218941000000003E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.8323171999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.2314581999999997E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.8642482000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="1">
-        <f>[5]LDA_4comp_and_kNN_accuracies!$C$2</f>
-        <v>0.87997458900000003</v>
+        <v>4.0128959999999998E-2</v>
       </c>
       <c r="C6" s="1">
-        <f>[6]LDA_4comp_and_kNN_results!$B$2</f>
-        <v>0.98159488966829</v>
+        <v>3.9306287000000002E-2</v>
       </c>
       <c r="D6" s="1">
-        <f>[6]LDA_4comp_and_kNN_results!$B$3</f>
-        <v>0.66491647489033401</v>
+        <v>0.225949134</v>
       </c>
       <c r="E6" s="2">
-        <f>[6]LDA_4comp_and_kNN_results!$B$4</f>
-        <v>0.99342317212116404</v>
+        <v>0.141672293</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.2286015999999999E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.9577339000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.13749491599999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.12253193499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <f>[7]SVM_G_performance!$B$5</f>
-        <v>0.99150929201661997</v>
-      </c>
-      <c r="C7" s="3">
-        <f>[7]SVM_G_performance!$B$2</f>
-        <v>0.93706738819965096</v>
-      </c>
-      <c r="D7" s="3">
-        <f>[7]SVM_G_performance!$B$3</f>
-        <v>0.96449092783359902</v>
-      </c>
-      <c r="E7" s="9">
-        <f>[7]SVM_G_performance!$B$4</f>
-        <v>0.96829827775236699</v>
+      <c r="B8" s="3">
+        <v>0.688804784</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.19724804900000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.87789484500000003</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.48441634099999997</v>
       </c>
     </row>
   </sheetData>

--- a/results/Performance/training/Combined_performance.xlsx
+++ b/results/Performance/training/Combined_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PieterCode\Cu-SX-Fault-Identification\results\Performance\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551AEAD5-D65E-4D47-8EE9-19CCFDF90814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454E58B-2112-47FB-B1EE-C0C2FD68F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5A8010D-4915-4E6C-945B-B521AF274DB4}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5A8010D-4915-4E6C-945B-B521AF274DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="35">
   <si>
     <t>kNN</t>
   </si>
@@ -207,10 +208,42 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+  </si>
+  <si>
     <t>Based on best accuracy</t>
   </si>
   <si>
     <t>Best of each</t>
+  </si>
+  <si>
+    <t>E.D.</t>
+  </si>
+  <si>
+    <t>S.V.</t>
+  </si>
+  <si>
+    <t>S.D.</t>
+  </si>
+  <si>
+    <t>P.D.</t>
+  </si>
+  <si>
+    <t>Positive Drift</t>
   </si>
 </sst>
 </file>
@@ -443,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -454,35 +487,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -494,14 +508,47 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,92 +823,92 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="performance"/>
+      <sheetName val="combined_AUC_values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
-          <cell r="J2">
-            <v>0.34511749600000002</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-          <cell r="M2">
-            <v>0.87411640300000004</v>
+          <cell r="B2">
+            <v>0.49132443100000001</v>
+          </cell>
+          <cell r="C2">
+            <v>0.50021507099999996</v>
+          </cell>
+          <cell r="D2">
+            <v>0.49997214800000001</v>
+          </cell>
+          <cell r="E2">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="J3">
-            <v>0.46926130700000002</v>
-          </cell>
-          <cell r="K3">
-            <v>0.234795006</v>
-          </cell>
-          <cell r="L3">
-            <v>0.509164002</v>
-          </cell>
-          <cell r="M3">
-            <v>0.456184331</v>
+          <cell r="B3">
+            <v>0.62460575200000001</v>
+          </cell>
+          <cell r="C3">
+            <v>0.53035146300000002</v>
+          </cell>
+          <cell r="D3">
+            <v>0.96386615399999997</v>
+          </cell>
+          <cell r="E3">
+            <v>0.515386554</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="J4">
-            <v>0.42820359499999999</v>
-          </cell>
-          <cell r="K4">
-            <v>0.15936391699999999</v>
-          </cell>
-          <cell r="L4">
-            <v>0.35518512899999999</v>
-          </cell>
-          <cell r="M4">
-            <v>0.44965210900000002</v>
+          <cell r="B4">
+            <v>0.68850862400000001</v>
+          </cell>
+          <cell r="C4">
+            <v>0.47858066199999999</v>
+          </cell>
+          <cell r="D4">
+            <v>0.98765947600000004</v>
+          </cell>
+          <cell r="E4">
+            <v>0.50619098100000004</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>0.40507791300000001</v>
-          </cell>
-          <cell r="K5">
-            <v>0.11921715500000001</v>
-          </cell>
-          <cell r="L5">
-            <v>0.159217256</v>
-          </cell>
-          <cell r="M5">
-            <v>0.50792658899999998</v>
+          <cell r="B5">
+            <v>0.74755285400000004</v>
+          </cell>
+          <cell r="C5">
+            <v>0.41790993900000001</v>
+          </cell>
+          <cell r="D5">
+            <v>0.98748730200000001</v>
+          </cell>
+          <cell r="E5">
+            <v>0.67031104799999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0.21136492500000001</v>
-          </cell>
-          <cell r="K6">
-            <v>5.4964273000000001E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>0.168235367</v>
-          </cell>
-          <cell r="M6">
-            <v>0.22295105400000001</v>
+          <cell r="B6">
+            <v>0.61444791200000004</v>
+          </cell>
+          <cell r="C6">
+            <v>0.30065280700000002</v>
+          </cell>
+          <cell r="D6">
+            <v>0.99418736399999996</v>
+          </cell>
+          <cell r="E6">
+            <v>0.60462996099999999</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="J7">
-            <v>0.91231978300000005</v>
-          </cell>
-          <cell r="K7">
-            <v>0.93040293900000004</v>
-          </cell>
-          <cell r="L7">
-            <v>0.93076902399999994</v>
-          </cell>
-          <cell r="M7">
-            <v>0.88071007000000001</v>
+          <cell r="B7">
+            <v>0.89681086200000004</v>
+          </cell>
+          <cell r="C7">
+            <v>0.648885559</v>
+          </cell>
+          <cell r="D7">
+            <v>0.97363741100000001</v>
+          </cell>
+          <cell r="E7">
+            <v>0.40273058</v>
           </cell>
         </row>
       </sheetData>
@@ -877,92 +924,37 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="combined_AUC_values"/>
+      <sheetName val="kNN_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.5</v>
-          </cell>
-          <cell r="C2">
-            <v>0.5</v>
-          </cell>
-          <cell r="D2">
-            <v>0.5</v>
-          </cell>
-          <cell r="E2">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.63471380899999996</v>
-          </cell>
-          <cell r="C3">
-            <v>0.60472845399999997</v>
-          </cell>
-          <cell r="D3">
-            <v>0.61834152099999995</v>
-          </cell>
-          <cell r="E3">
-            <v>0.64248851100000004</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.56182110100000004</v>
-          </cell>
-          <cell r="C4">
-            <v>0.56690388800000002</v>
-          </cell>
-          <cell r="D4">
-            <v>0.57716932499999996</v>
-          </cell>
-          <cell r="E4">
-            <v>0.57647898099999995</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.90999377999999997</v>
-          </cell>
-          <cell r="C5">
-            <v>0.92361093900000002</v>
-          </cell>
-          <cell r="D5">
-            <v>0.91442267499999996</v>
-          </cell>
-          <cell r="E5">
-            <v>0.92442122299999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.96181902699999999</v>
-          </cell>
-          <cell r="C6">
-            <v>0.96571475299999998</v>
-          </cell>
-          <cell r="D6">
-            <v>0.97572775300000003</v>
-          </cell>
-          <cell r="E6">
-            <v>0.97105308099999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.97596959800000005</v>
-          </cell>
-          <cell r="C7">
-            <v>0.99166546300000002</v>
-          </cell>
-          <cell r="D7">
-            <v>0.99139493899999998</v>
-          </cell>
-          <cell r="E7">
-            <v>0.98163177899999998</v>
+        <row r="26">
+          <cell r="B26">
+            <v>4.3409481E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>0.15831500800000001</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>0.127698864</v>
+          </cell>
+          <cell r="B152">
+            <v>1.0772501E-2</v>
+          </cell>
+          <cell r="C152">
+            <v>0.91925588300000005</v>
+          </cell>
+          <cell r="D152">
+            <v>0.443946493</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -978,92 +970,32 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="performance"/>
+      <sheetName val="kNN2_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-          <cell r="M2">
-            <v>0.93526483699999996</v>
-          </cell>
-          <cell r="N2">
-            <v>0.39302548999999998</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="K3">
-            <v>5.8759489999999998E-2</v>
-          </cell>
-          <cell r="L3">
-            <v>8.6228913000000004E-2</v>
-          </cell>
-          <cell r="M3">
-            <v>5.3302746999999998E-2</v>
-          </cell>
-          <cell r="N3">
-            <v>6.6692643999999995E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4">
-            <v>3.4218941000000003E-2</v>
-          </cell>
-          <cell r="L4">
-            <v>4.8323171999999998E-2</v>
-          </cell>
-          <cell r="M4">
-            <v>8.2314581999999997E-2</v>
-          </cell>
-          <cell r="N4">
-            <v>6.8642482000000005E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>4.0128959999999998E-2</v>
-          </cell>
-          <cell r="L5">
-            <v>3.9306287000000002E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>0.225949134</v>
-          </cell>
-          <cell r="N5">
-            <v>0.141672293</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>2.2286015999999999E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>6.9577339000000002E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>0.13749491599999999</v>
-          </cell>
-          <cell r="N6">
-            <v>0.12253193499999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>0.688804784</v>
-          </cell>
-          <cell r="L7">
-            <v>0.19724804900000001</v>
-          </cell>
-          <cell r="M7">
-            <v>0.87789484500000003</v>
-          </cell>
-          <cell r="N7">
-            <v>0.48441634099999997</v>
+          <cell r="B2">
+            <v>0.99851271500000005</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>0.42989451200000001</v>
+          </cell>
+          <cell r="B199">
+            <v>0.49091568499999999</v>
+          </cell>
+          <cell r="C199">
+            <v>0.61158908999999995</v>
+          </cell>
+          <cell r="D199">
+            <v>0.56649713899999998</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -1079,32 +1011,27 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="kNN_performance"/>
+      <sheetName val="kNN4_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="B26">
-            <v>4.3409481E-2</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>0.15831500800000001</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>0.127698864</v>
-          </cell>
-          <cell r="B152">
-            <v>1.0772501E-2</v>
-          </cell>
-          <cell r="C152">
-            <v>0.91925588300000005</v>
-          </cell>
-          <cell r="D152">
-            <v>0.443946493</v>
+        <row r="3">
+          <cell r="B3">
+            <v>0.55706380529218003</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>0.58809564540398596</v>
+          </cell>
+          <cell r="B179">
+            <v>0.33768207167800601</v>
+          </cell>
+          <cell r="C179">
+            <v>0.78068525286172596</v>
+          </cell>
+          <cell r="D179">
+            <v>0.56754169544098998</v>
           </cell>
         </row>
         <row r="201">
@@ -1125,27 +1052,32 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="kNN2_performance"/>
+      <sheetName val="LDA2_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.99851271500000005</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>0.42989451200000001</v>
-          </cell>
-          <cell r="B199">
-            <v>0.49091568499999999</v>
-          </cell>
-          <cell r="C199">
-            <v>0.61158908999999995</v>
-          </cell>
-          <cell r="D199">
-            <v>0.56649713899999998</v>
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>0.41864285400000001</v>
+          </cell>
+          <cell r="B11">
+            <v>0.49574643499999999</v>
+          </cell>
+          <cell r="C11">
+            <v>0.64001991700000005</v>
+          </cell>
+          <cell r="D11">
+            <v>0.59048286900000002</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>0.44089726899999998</v>
           </cell>
         </row>
         <row r="201">
@@ -1166,7 +1098,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="LDA2_performance"/>
+      <sheetName val="LDA4_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1177,21 +1109,21 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>0.41864285400000001</v>
+            <v>0.35245565800000001</v>
           </cell>
           <cell r="B11">
-            <v>0.49574643499999999</v>
+            <v>0.53032253399999996</v>
           </cell>
           <cell r="C11">
-            <v>0.64001991700000005</v>
+            <v>0.59700139299999999</v>
           </cell>
           <cell r="D11">
-            <v>0.59048286900000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>0.44089726899999998</v>
+            <v>0.57749198499999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>0.35283120699999998</v>
           </cell>
         </row>
         <row r="201">
@@ -1212,37 +1144,37 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="LDA4_performance"/>
+      <sheetName val="SVM_G_performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
+          <cell r="C2">
             <v>1</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.35245565800000001</v>
-          </cell>
-          <cell r="B11">
-            <v>0.53032253399999996</v>
-          </cell>
-          <cell r="C11">
-            <v>0.59700139299999999</v>
-          </cell>
-          <cell r="D11">
-            <v>0.57749198499999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.35283120699999998</v>
+        <row r="3">
+          <cell r="A3">
+            <v>0.85105864835340705</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>0.53638515634268302</v>
+          </cell>
+          <cell r="B70">
+            <v>0.86290018832391702</v>
+          </cell>
+          <cell r="C70">
+            <v>0.53985751915522096</v>
+          </cell>
+          <cell r="D70">
+            <v>0.66311569014008398</v>
           </cell>
         </row>
         <row r="201">
-          <cell r="C201">
-            <v>1</v>
+          <cell r="B201">
+            <v>0.94158166644588703</v>
           </cell>
         </row>
       </sheetData>
@@ -1258,32 +1190,92 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="kNN4_performance"/>
+      <sheetName val="performance"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>0.34511749600000002</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0.87411640300000004</v>
+          </cell>
+        </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.55706380529218003</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>0.58809564540398596</v>
-          </cell>
-          <cell r="B179">
-            <v>0.33768207167800601</v>
-          </cell>
-          <cell r="C179">
-            <v>0.78068525286172596</v>
-          </cell>
-          <cell r="D179">
-            <v>0.56754169544098998</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="C201">
-            <v>1</v>
+          <cell r="J3">
+            <v>0.46926130700000002</v>
+          </cell>
+          <cell r="K3">
+            <v>0.234795006</v>
+          </cell>
+          <cell r="L3">
+            <v>0.509164002</v>
+          </cell>
+          <cell r="M3">
+            <v>0.456184331</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>0.42820359499999999</v>
+          </cell>
+          <cell r="K4">
+            <v>0.15936391699999999</v>
+          </cell>
+          <cell r="L4">
+            <v>0.35518512899999999</v>
+          </cell>
+          <cell r="M4">
+            <v>0.44965210900000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>0.40507791300000001</v>
+          </cell>
+          <cell r="K5">
+            <v>0.11921715500000001</v>
+          </cell>
+          <cell r="L5">
+            <v>0.159217256</v>
+          </cell>
+          <cell r="M5">
+            <v>0.50792658899999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0.21136492500000001</v>
+          </cell>
+          <cell r="K6">
+            <v>5.4964273000000001E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>0.168235367</v>
+          </cell>
+          <cell r="M6">
+            <v>0.22295105400000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>0.91231978300000005</v>
+          </cell>
+          <cell r="K7">
+            <v>0.93040293900000004</v>
+          </cell>
+          <cell r="L7">
+            <v>0.93076902399999994</v>
+          </cell>
+          <cell r="M7">
+            <v>0.88071007000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1299,37 +1291,193 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="SVM_G_performance"/>
+      <sheetName val="combined_AUC_values"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>0.5</v>
+          </cell>
           <cell r="C2">
-            <v>1</v>
+            <v>0.5</v>
+          </cell>
+          <cell r="D2">
+            <v>0.5</v>
+          </cell>
+          <cell r="E2">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="A3">
-            <v>0.85105864835340705</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>0.53638515634268302</v>
-          </cell>
-          <cell r="B70">
-            <v>0.86290018832391702</v>
-          </cell>
-          <cell r="C70">
-            <v>0.53985751915522096</v>
-          </cell>
-          <cell r="D70">
-            <v>0.66311569014008398</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201">
-            <v>0.94158166644588703</v>
+          <cell r="B3">
+            <v>0.63471380899999996</v>
+          </cell>
+          <cell r="C3">
+            <v>0.60472845399999997</v>
+          </cell>
+          <cell r="D3">
+            <v>0.61834152099999995</v>
+          </cell>
+          <cell r="E3">
+            <v>0.64248851100000004</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.56182110100000004</v>
+          </cell>
+          <cell r="C4">
+            <v>0.56690388800000002</v>
+          </cell>
+          <cell r="D4">
+            <v>0.57716932499999996</v>
+          </cell>
+          <cell r="E4">
+            <v>0.57647898099999995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.90999377999999997</v>
+          </cell>
+          <cell r="C5">
+            <v>0.92361093900000002</v>
+          </cell>
+          <cell r="D5">
+            <v>0.91442267499999996</v>
+          </cell>
+          <cell r="E5">
+            <v>0.92442122299999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.96181902699999999</v>
+          </cell>
+          <cell r="C6">
+            <v>0.96571475299999998</v>
+          </cell>
+          <cell r="D6">
+            <v>0.97572775300000003</v>
+          </cell>
+          <cell r="E6">
+            <v>0.97105308099999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.97596959800000005</v>
+          </cell>
+          <cell r="C7">
+            <v>0.99166546300000002</v>
+          </cell>
+          <cell r="D7">
+            <v>0.99139493899999998</v>
+          </cell>
+          <cell r="E7">
+            <v>0.98163177899999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0.93526483699999996</v>
+          </cell>
+          <cell r="N2">
+            <v>0.39302548999999998</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="K3">
+            <v>5.8759489999999998E-2</v>
+          </cell>
+          <cell r="L3">
+            <v>8.6228913000000004E-2</v>
+          </cell>
+          <cell r="M3">
+            <v>5.3302746999999998E-2</v>
+          </cell>
+          <cell r="N3">
+            <v>6.6692643999999995E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>3.4218941000000003E-2</v>
+          </cell>
+          <cell r="L4">
+            <v>4.8323171999999998E-2</v>
+          </cell>
+          <cell r="M4">
+            <v>8.2314581999999997E-2</v>
+          </cell>
+          <cell r="N4">
+            <v>6.8642482000000005E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>4.0128959999999998E-2</v>
+          </cell>
+          <cell r="L5">
+            <v>3.9306287000000002E-2</v>
+          </cell>
+          <cell r="M5">
+            <v>0.225949134</v>
+          </cell>
+          <cell r="N5">
+            <v>0.141672293</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>2.2286015999999999E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>6.9577339000000002E-2</v>
+          </cell>
+          <cell r="M6">
+            <v>0.13749491599999999</v>
+          </cell>
+          <cell r="N6">
+            <v>0.12253193499999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>0.688804784</v>
+          </cell>
+          <cell r="L7">
+            <v>0.19724804900000001</v>
+          </cell>
+          <cell r="M7">
+            <v>0.87789484500000003</v>
+          </cell>
+          <cell r="N7">
+            <v>0.48441634099999997</v>
           </cell>
         </row>
       </sheetData>
@@ -1826,308 +1974,92 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="performance"/>
+      <sheetName val="combined_AUC_values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.66</v>
+            <v>0.496489230263709</v>
           </cell>
           <cell r="C2">
-            <v>0.31</v>
+            <v>0.5</v>
           </cell>
           <cell r="D2">
-            <v>4.2999999999999997E-2</v>
+            <v>0.5</v>
           </cell>
           <cell r="E2">
-            <v>0.95499999999999996</v>
-          </cell>
-          <cell r="F2">
-            <v>0.31</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>NaN</v>
-          </cell>
-          <cell r="J2">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
-          </cell>
-          <cell r="N2">
-            <v>0.96199999999999997</v>
-          </cell>
-          <cell r="O2">
-            <v>1</v>
-          </cell>
-          <cell r="P2">
-            <v>1</v>
-          </cell>
-          <cell r="Q2">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.59899999999999998</v>
+            <v>0.97706339140739695</v>
           </cell>
           <cell r="C3">
-            <v>0.4</v>
+            <v>0.97001958811195899</v>
           </cell>
           <cell r="D3">
-            <v>0.92600000000000005</v>
+            <v>0.99965384363697496</v>
           </cell>
           <cell r="E3">
-            <v>0.47599999999999998</v>
-          </cell>
-          <cell r="F3">
-            <v>0.28599999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>4.2999999999999997E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>0.68</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>NaN</v>
-          </cell>
-          <cell r="J3">
-            <v>0.65</v>
-          </cell>
-          <cell r="K3">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="L3">
-            <v>0.98</v>
-          </cell>
-          <cell r="M3">
-            <v>0</v>
-          </cell>
-          <cell r="N3">
-            <v>0.60099999999999998</v>
-          </cell>
-          <cell r="O3">
-            <v>0.998</v>
-          </cell>
-          <cell r="P3">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="Q3">
-            <v>1</v>
+            <v>0.95795978147981198</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.7</v>
+            <v>0.99310708314604901</v>
           </cell>
           <cell r="C4">
-            <v>0.52700000000000002</v>
+            <v>0.99885153343056199</v>
           </cell>
           <cell r="D4">
-            <v>0.76100000000000001</v>
+            <v>0.99997916706211099</v>
           </cell>
           <cell r="E4">
-            <v>0.67100000000000004</v>
-          </cell>
-          <cell r="F4">
-            <v>0.36699999999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>0.01</v>
-          </cell>
-          <cell r="H4">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>0.623</v>
-          </cell>
-          <cell r="K4">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="L4">
-            <v>0.97799999999999998</v>
-          </cell>
-          <cell r="M4">
-            <v>0</v>
-          </cell>
-          <cell r="N4">
-            <v>0.73499999999999999</v>
-          </cell>
-          <cell r="O4">
-            <v>0.999</v>
-          </cell>
-          <cell r="P4">
-            <v>0.99</v>
-          </cell>
-          <cell r="Q4">
-            <v>1</v>
+            <v>0.99696989482935305</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.83099999999999996</v>
+            <v>0.97157065686581801</v>
           </cell>
           <cell r="C5">
-            <v>0.94399999999999995</v>
+            <v>0.70300518843608095</v>
           </cell>
           <cell r="D5">
-            <v>0.5</v>
+            <v>0.99786222346999298</v>
           </cell>
           <cell r="E5">
-            <v>0.98599999999999999</v>
-          </cell>
-          <cell r="F5">
-            <v>0.98499999999999999</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>NaN</v>
-          </cell>
-          <cell r="H5">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>NaN</v>
-          </cell>
-          <cell r="J5">
-            <v>0.252</v>
-          </cell>
-          <cell r="K5">
-            <v>0</v>
-          </cell>
-          <cell r="L5">
-            <v>0.86299999999999999</v>
-          </cell>
-          <cell r="M5">
-            <v>0</v>
-          </cell>
-          <cell r="N5">
-            <v>0.999</v>
-          </cell>
-          <cell r="O5">
-            <v>1</v>
-          </cell>
-          <cell r="P5">
-            <v>0.99</v>
-          </cell>
-          <cell r="Q5">
-            <v>1</v>
+            <v>0.69596463460007396</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.81599999999999995</v>
+            <v>0.970996172299322</v>
           </cell>
           <cell r="C6">
-            <v>0.66600000000000004</v>
+            <v>0.89803057956954402</v>
           </cell>
           <cell r="D6">
-            <v>0.56599999999999995</v>
+            <v>0.99786546330568004</v>
           </cell>
           <cell r="E6">
-            <v>0.90200000000000002</v>
-          </cell>
-          <cell r="F6">
-            <v>0.98</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>0.999</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>NaN</v>
-          </cell>
-          <cell r="J6">
-            <v>0.18</v>
-          </cell>
-          <cell r="K6">
-            <v>2E-3</v>
-          </cell>
-          <cell r="L6">
-            <v>0.86299999999999999</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-          <cell r="N6">
-            <v>0.999</v>
-          </cell>
-          <cell r="O6">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="P6">
-            <v>1</v>
-          </cell>
-          <cell r="Q6">
-            <v>1</v>
+            <v>0.87573471800630098</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.86699999999999999</v>
+            <v>0.99614553260307903</v>
           </cell>
           <cell r="C7">
-            <v>0.79200000000000004</v>
+            <v>0.99999858434738698</v>
           </cell>
           <cell r="D7">
-            <v>0.80300000000000005</v>
+            <v>0.99998947408227101</v>
           </cell>
           <cell r="E7">
-            <v>0.89900000000000002</v>
-          </cell>
-          <cell r="F7">
-            <v>0.70699999999999996</v>
-          </cell>
-          <cell r="G7">
-            <v>0.626</v>
-          </cell>
-          <cell r="H7">
-            <v>0.97199999999999998</v>
-          </cell>
-          <cell r="I7">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>0.751</v>
-          </cell>
-          <cell r="K7">
-            <v>0.22800000000000001</v>
-          </cell>
-          <cell r="L7">
-            <v>0.877</v>
-          </cell>
-          <cell r="M7">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>0.92300000000000004</v>
-          </cell>
-          <cell r="O7">
-            <v>1</v>
-          </cell>
-          <cell r="P7">
-            <v>0.996</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.996</v>
+            <v>0.99856235639897795</v>
           </cell>
         </row>
       </sheetData>
@@ -2143,92 +2075,308 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="combined_AUC_values"/>
+      <sheetName val="performance"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="B2">
-            <v>0.49132443100000001</v>
+            <v>0.66</v>
           </cell>
           <cell r="C2">
-            <v>0.50021507099999996</v>
+            <v>0.31</v>
           </cell>
           <cell r="D2">
-            <v>0.49997214800000001</v>
+            <v>4.2999999999999997E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.5</v>
+            <v>0.95499999999999996</v>
+          </cell>
+          <cell r="F2">
+            <v>0.31</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J2">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
+            <v>0.96199999999999997</v>
+          </cell>
+          <cell r="O2">
+            <v>1</v>
+          </cell>
+          <cell r="P2">
+            <v>1</v>
+          </cell>
+          <cell r="Q2">
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.62460575200000001</v>
+            <v>0.59899999999999998</v>
           </cell>
           <cell r="C3">
-            <v>0.53035146300000002</v>
+            <v>0.4</v>
           </cell>
           <cell r="D3">
-            <v>0.96386615399999997</v>
+            <v>0.92600000000000005</v>
           </cell>
           <cell r="E3">
-            <v>0.515386554</v>
+            <v>0.47599999999999998</v>
+          </cell>
+          <cell r="F3">
+            <v>0.28599999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>0.68</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J3">
+            <v>0.65</v>
+          </cell>
+          <cell r="K3">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="L3">
+            <v>0.98</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>0.60099999999999998</v>
+          </cell>
+          <cell r="O3">
+            <v>0.998</v>
+          </cell>
+          <cell r="P3">
+            <v>0.93300000000000005</v>
+          </cell>
+          <cell r="Q3">
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.68850862400000001</v>
+            <v>0.7</v>
           </cell>
           <cell r="C4">
-            <v>0.47858066199999999</v>
+            <v>0.52700000000000002</v>
           </cell>
           <cell r="D4">
-            <v>0.98765947600000004</v>
+            <v>0.76100000000000001</v>
           </cell>
           <cell r="E4">
-            <v>0.50619098100000004</v>
+            <v>0.67100000000000004</v>
+          </cell>
+          <cell r="F4">
+            <v>0.36699999999999999</v>
+          </cell>
+          <cell r="G4">
+            <v>0.01</v>
+          </cell>
+          <cell r="H4">
+            <v>0.93200000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0.623</v>
+          </cell>
+          <cell r="K4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="L4">
+            <v>0.97799999999999998</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4">
+            <v>0.73499999999999999</v>
+          </cell>
+          <cell r="O4">
+            <v>0.999</v>
+          </cell>
+          <cell r="P4">
+            <v>0.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>1</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.74755285400000004</v>
+            <v>0.83099999999999996</v>
           </cell>
           <cell r="C5">
-            <v>0.41790993900000001</v>
+            <v>0.94399999999999995</v>
           </cell>
           <cell r="D5">
-            <v>0.98748730200000001</v>
+            <v>0.5</v>
           </cell>
           <cell r="E5">
-            <v>0.67031104799999996</v>
+            <v>0.98599999999999999</v>
+          </cell>
+          <cell r="F5">
+            <v>0.98499999999999999</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="H5">
+            <v>0.92600000000000005</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J5">
+            <v>0.252</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0.86299999999999999</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0.999</v>
+          </cell>
+          <cell r="O5">
+            <v>1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.99</v>
+          </cell>
+          <cell r="Q5">
+            <v>1</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.61444791200000004</v>
+            <v>0.81599999999999995</v>
           </cell>
           <cell r="C6">
-            <v>0.30065280700000002</v>
+            <v>0.66600000000000004</v>
           </cell>
           <cell r="D6">
-            <v>0.99418736399999996</v>
+            <v>0.56599999999999995</v>
           </cell>
           <cell r="E6">
-            <v>0.60462996099999999</v>
+            <v>0.90200000000000002</v>
+          </cell>
+          <cell r="F6">
+            <v>0.98</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0.999</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>NaN</v>
+          </cell>
+          <cell r="J6">
+            <v>0.18</v>
+          </cell>
+          <cell r="K6">
+            <v>2E-3</v>
+          </cell>
+          <cell r="L6">
+            <v>0.86299999999999999</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0.999</v>
+          </cell>
+          <cell r="O6">
+            <v>0.92800000000000005</v>
+          </cell>
+          <cell r="P6">
+            <v>1</v>
+          </cell>
+          <cell r="Q6">
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.89681086200000004</v>
+            <v>0.86699999999999999</v>
           </cell>
           <cell r="C7">
-            <v>0.648885559</v>
+            <v>0.79200000000000004</v>
           </cell>
           <cell r="D7">
-            <v>0.97363741100000001</v>
+            <v>0.80300000000000005</v>
           </cell>
           <cell r="E7">
-            <v>0.40273058</v>
+            <v>0.89900000000000002</v>
+          </cell>
+          <cell r="F7">
+            <v>0.70699999999999996</v>
+          </cell>
+          <cell r="G7">
+            <v>0.626</v>
+          </cell>
+          <cell r="H7">
+            <v>0.97199999999999998</v>
+          </cell>
+          <cell r="I7">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="J7">
+            <v>0.751</v>
+          </cell>
+          <cell r="K7">
+            <v>0.22800000000000001</v>
+          </cell>
+          <cell r="L7">
+            <v>0.877</v>
+          </cell>
+          <cell r="M7">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="N7">
+            <v>0.92300000000000004</v>
+          </cell>
+          <cell r="O7">
+            <v>1</v>
+          </cell>
+          <cell r="P7">
+            <v>0.996</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.996</v>
           </cell>
         </row>
       </sheetData>
@@ -2536,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D1E38D-8F38-4250-8C0B-3B9EB50F15AB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,22 +2708,22 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="N1" s="11" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2597,24 +2745,24 @@
         <f>[2]kNN_results!$B$4</f>
         <v>0.99945002956830298</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2642,15 +2790,15 @@
         <f>[1]kNN_accuracies!A2</f>
         <v>1</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <f>[1]kNN_accuracies!B2</f>
         <v>0.95600171300000003</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B2</f>
         <v>0.96820845600000005</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B2</f>
         <v>0.97401939000000004</v>
       </c>
@@ -2658,15 +2806,15 @@
         <f>I3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="14">
         <f>J3*100</f>
         <v>95.6001713</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="14">
         <f>K3*100</f>
         <v>96.820845599999998</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="15">
         <f>L3*100</f>
         <v>97.401938999999999</v>
       </c>
@@ -2695,15 +2843,15 @@
         <f>[1]kNN_accuracies!A3</f>
         <v>2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <f>[1]kNN_accuracies!B3</f>
         <v>0.94213525399999998</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B3</f>
         <v>0.94892689399999997</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B3</f>
         <v>0.95900401700000004</v>
       </c>
@@ -2711,15 +2859,15 @@
         <f t="shared" ref="N4:N31" si="0">I4</f>
         <v>2</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <f t="shared" ref="O4:O31" si="1">J4*100</f>
         <v>94.213525399999995</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="14">
         <f t="shared" ref="P4:P31" si="2">K4*100</f>
         <v>94.892689399999995</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="15">
         <f t="shared" ref="Q4:Q31" si="3">L4*100</f>
         <v>95.900401700000003</v>
       </c>
@@ -2732,7 +2880,7 @@
         <f>[3]LDA_2comp_and_kNN_accuracies!$C$2</f>
         <v>0.88261347099999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="13">
         <f>[4]LDA_2comp_and_kNN_results!$B$2</f>
         <v>0.99987650994656296</v>
       </c>
@@ -2740,7 +2888,7 @@
         <f>[4]LDA_2comp_and_kNN_results!$B$3</f>
         <v>0.66123955038828797</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="35">
         <f>[4]LDA_2comp_and_kNN_results!$B$4</f>
         <v>0.99995671114924001</v>
       </c>
@@ -2748,15 +2896,15 @@
         <f>[1]kNN_accuracies!A4</f>
         <v>3</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <f>[1]kNN_accuracies!B4</f>
         <v>0.95041994399999996</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B4</f>
         <v>0.96060972</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B4</f>
         <v>0.96634580800000003</v>
       </c>
@@ -2764,15 +2912,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="14">
         <f t="shared" si="1"/>
         <v>95.041994399999993</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="14">
         <f t="shared" si="2"/>
         <v>96.060972000000007</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="15">
         <f t="shared" si="3"/>
         <v>96.634580800000009</v>
       </c>
@@ -2801,15 +2949,15 @@
         <f>[1]kNN_accuracies!A5</f>
         <v>4</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="14">
         <f>[1]kNN_accuracies!B5</f>
         <v>0.94708893900000002</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B5</f>
         <v>0.95948086600000004</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B5</f>
         <v>0.96450939599999996</v>
       </c>
@@ -2817,15 +2965,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>94.708893900000007</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="14">
         <f t="shared" si="2"/>
         <v>95.948086600000011</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="15">
         <f t="shared" si="3"/>
         <v>96.450939599999998</v>
       </c>
@@ -2834,7 +2982,7 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="36">
         <f>[7]SVM_G_performance!$B$5</f>
         <v>0.99150929201661997</v>
       </c>
@@ -2842,7 +2990,7 @@
         <f>[7]SVM_G_performance!$B$2</f>
         <v>0.93706738819965096</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="36">
         <f>[7]SVM_G_performance!$B$3</f>
         <v>0.96449092783359902</v>
       </c>
@@ -2854,15 +3002,15 @@
         <f>[1]kNN_accuracies!A6</f>
         <v>5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <f>[1]kNN_accuracies!B6</f>
         <v>0.95171700699999995</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B6</f>
         <v>0.96222622599999996</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B6</f>
         <v>0.96664287500000001</v>
       </c>
@@ -2870,15 +3018,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="14">
         <f t="shared" si="1"/>
         <v>95.171700699999988</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="14">
         <f t="shared" si="2"/>
         <v>96.222622599999994</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="15">
         <f t="shared" si="3"/>
         <v>96.6642875</v>
       </c>
@@ -2888,15 +3036,15 @@
         <f>[1]kNN_accuracies!A7</f>
         <v>6</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <f>[1]kNN_accuracies!B7</f>
         <v>0.95645464300000005</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B7</f>
         <v>0.96085817500000004</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B7</f>
         <v>0.96543146000000002</v>
       </c>
@@ -2904,15 +3052,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="14">
         <f t="shared" si="1"/>
         <v>95.6454643</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="14">
         <f t="shared" si="2"/>
         <v>96.085817500000005</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="15">
         <f t="shared" si="3"/>
         <v>96.543146000000007</v>
       </c>
@@ -2922,15 +3070,15 @@
         <f>[1]kNN_accuracies!A8</f>
         <v>7</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <f>[1]kNN_accuracies!B8</f>
         <v>0.95493690200000003</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B8</f>
         <v>0.96170770900000002</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B8</f>
         <v>0.96624164199999996</v>
       </c>
@@ -2938,15 +3086,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="14">
         <f t="shared" si="1"/>
         <v>95.493690200000003</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="14">
         <f t="shared" si="2"/>
         <v>96.170770900000008</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="15">
         <f t="shared" si="3"/>
         <v>96.624164199999996</v>
       </c>
@@ -2956,15 +3104,15 @@
         <f>[1]kNN_accuracies!A9</f>
         <v>8</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <f>[1]kNN_accuracies!B9</f>
         <v>0.95865370900000002</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B9</f>
         <v>0.96180801800000004</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B9</f>
         <v>0.96674781300000001</v>
       </c>
@@ -2972,33 +3120,40 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="16">
         <f t="shared" si="1"/>
         <v>95.865370900000002</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="14">
         <f t="shared" si="2"/>
         <v>96.180801799999998</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="15">
         <f t="shared" si="3"/>
         <v>96.674781300000006</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="I11" s="7">
         <f>[1]kNN_accuracies!A10</f>
         <v>9</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <f>[1]kNN_accuracies!B10</f>
         <v>0.95617995300000003</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B10</f>
         <v>0.96244150299999998</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B10</f>
         <v>0.96710352200000005</v>
       </c>
@@ -3006,33 +3161,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="14">
         <f t="shared" si="1"/>
         <v>95.617995300000004</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="14">
         <f t="shared" si="2"/>
         <v>96.244150300000001</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="19">
         <f t="shared" si="3"/>
         <v>96.710352200000003</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="7">
         <f>[1]kNN_accuracies!A11</f>
         <v>10</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <f>[1]kNN_accuracies!B11</f>
         <v>0.95715217100000005</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B11</f>
         <v>0.96206418900000001</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B11</f>
         <v>0.96679951099999994</v>
       </c>
@@ -3040,33 +3208,49 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="14">
         <f t="shared" si="1"/>
         <v>95.715217100000004</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="14">
         <f t="shared" si="2"/>
         <v>96.206418900000003</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="15">
         <f t="shared" si="3"/>
         <v>96.679951099999997</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25" cm="1">
+        <f t="array" ref="B13:E18">[8]combined_AUC_values!$B$2:$E$7</f>
+        <v>0.496489230263709</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="7">
         <f>[1]kNN_accuracies!A12</f>
         <v>20</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <f>[1]kNN_accuracies!B12</f>
         <v>0.95401329499999998</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B12</f>
         <v>0.96233116399999996</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B12</f>
         <v>0.96684503499999996</v>
       </c>
@@ -3074,33 +3258,48 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="14">
         <f t="shared" si="1"/>
         <v>95.401329500000003</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="14">
         <f t="shared" si="2"/>
         <v>96.2331164</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="15">
         <f t="shared" si="3"/>
         <v>96.684503499999991</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.97706339140739695</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.97001958811195899</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.99965384363697496</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.95795978147981198</v>
+      </c>
       <c r="I14" s="7">
         <f>[1]kNN_accuracies!A13</f>
         <v>30</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="14">
         <f>[1]kNN_accuracies!B13</f>
         <v>0.95131268800000002</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B13</f>
         <v>0.96240986699999997</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B13</f>
         <v>0.966616641</v>
       </c>
@@ -3108,33 +3307,48 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="14">
         <f t="shared" si="1"/>
         <v>95.131268800000001</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="14">
         <f t="shared" si="2"/>
         <v>96.240986699999993</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="15">
         <f t="shared" si="3"/>
         <v>96.661664099999996</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.99310708314604901</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.99885153343056199</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.99997916706211099</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.99696989482935305</v>
+      </c>
       <c r="I15" s="7">
         <f>[1]kNN_accuracies!A14</f>
         <v>40</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="14">
         <f>[1]kNN_accuracies!B14</f>
         <v>0.94900559799999995</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B14</f>
         <v>0.96245307700000005</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B14</f>
         <v>0.966358155</v>
       </c>
@@ -3142,33 +3356,48 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="14">
         <f t="shared" si="1"/>
         <v>94.900559799999996</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="14">
         <f t="shared" si="2"/>
         <v>96.245307699999998</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="15">
         <f t="shared" si="3"/>
         <v>96.635815500000007</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0.97157065686581801</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.70300518843608095</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.99786222346999298</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.69596463460007396</v>
+      </c>
       <c r="I16" s="7">
         <f>[1]kNN_accuracies!A15</f>
         <v>50</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="14">
         <f>[1]kNN_accuracies!B15</f>
         <v>0.94717072899999999</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B15</f>
         <v>0.96247313800000001</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B15</f>
         <v>0.96611895800000003</v>
       </c>
@@ -3176,33 +3405,48 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="14">
         <f t="shared" si="1"/>
         <v>94.717072900000005</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="14">
         <f t="shared" si="2"/>
         <v>96.247313800000001</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="15">
         <f t="shared" si="3"/>
         <v>96.611895799999999</v>
       </c>
     </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0.970996172299322</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.89803057956954402</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.99786546330568004</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.87573471800630098</v>
+      </c>
       <c r="I17" s="7">
         <f>[1]kNN_accuracies!A16</f>
         <v>60</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="14">
         <f>[1]kNN_accuracies!B16</f>
         <v>0.94538755600000002</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B16</f>
         <v>0.96243069999999997</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B16</f>
         <v>0.965919113</v>
       </c>
@@ -3210,33 +3454,48 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="14">
         <f t="shared" si="1"/>
         <v>94.538755600000002</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="14">
         <f t="shared" si="2"/>
         <v>96.243070000000003</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="15">
         <f t="shared" si="3"/>
         <v>96.591911299999992</v>
       </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.99614553260307903</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.99999858434738698</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.99998947408227101</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.99856235639897795</v>
+      </c>
       <c r="I18" s="7">
         <f>[1]kNN_accuracies!A17</f>
         <v>70</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="14">
         <f>[1]kNN_accuracies!B17</f>
         <v>0.94376564900000004</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B17</f>
         <v>0.96245847799999995</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B17</f>
         <v>0.96570383599999998</v>
       </c>
@@ -3244,33 +3503,33 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="14">
         <f t="shared" si="1"/>
         <v>94.376564900000005</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="14">
         <f t="shared" si="2"/>
         <v>96.245847799999993</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="15">
         <f t="shared" si="3"/>
         <v>96.5703836</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I19" s="7">
         <f>[1]kNN_accuracies!A18</f>
         <v>80</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="14">
         <f>[1]kNN_accuracies!B18</f>
         <v>0.94237213600000003</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B18</f>
         <v>0.96247391000000004</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B18</f>
         <v>0.96553176900000004</v>
       </c>
@@ -3278,33 +3537,37 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="14">
         <f t="shared" si="1"/>
         <v>94.237213600000004</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="14">
         <f t="shared" si="2"/>
         <v>96.247391000000007</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="15">
         <f t="shared" si="3"/>
         <v>96.553176900000011</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>IF(E18&gt;E15,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I20" s="7">
         <f>[1]kNN_accuracies!A19</f>
         <v>90</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="14">
         <f>[1]kNN_accuracies!B19</f>
         <v>0.94101951800000005</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <f>[3]LDA_2comp_and_kNN_accuracies!B19</f>
         <v>0.96248394100000001</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B19</f>
         <v>0.96528254099999999</v>
       </c>
@@ -3312,33 +3575,34 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="14">
         <f t="shared" si="1"/>
         <v>94.101951800000009</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="16">
         <f t="shared" si="2"/>
         <v>96.248394099999999</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="15">
         <f t="shared" si="3"/>
         <v>96.528254099999998</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
       <c r="I21" s="7">
         <f>[1]kNN_accuracies!A20</f>
         <v>100</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="14">
         <f>[1]kNN_accuracies!B20</f>
         <v>0.939710881</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B20</f>
         <v>0.96246542199999996</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B20</f>
         <v>0.96512204800000001</v>
       </c>
@@ -3346,33 +3610,33 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="14">
         <f t="shared" si="1"/>
         <v>93.971088100000003</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="14">
         <f t="shared" si="2"/>
         <v>96.246542199999993</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="15">
         <f t="shared" si="3"/>
         <v>96.512204800000006</v>
       </c>
     </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I22" s="7">
         <f>[1]kNN_accuracies!A21</f>
         <v>110</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="14">
         <f>[1]kNN_accuracies!B21</f>
         <v>0.93852955800000004</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B21</f>
         <v>0.96247545300000004</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B21</f>
         <v>0.96488207999999998</v>
       </c>
@@ -3380,33 +3644,33 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="14">
         <f t="shared" si="1"/>
         <v>93.852955800000004</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="14">
         <f t="shared" si="2"/>
         <v>96.247545299999999</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="15">
         <f t="shared" si="3"/>
         <v>96.488208</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I23" s="7">
         <f>[1]kNN_accuracies!A22</f>
         <v>120</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="14">
         <f>[1]kNN_accuracies!B22</f>
         <v>0.93735672299999995</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B22</f>
         <v>0.96244073100000005</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B22</f>
         <v>0.96468377800000005</v>
       </c>
@@ -3414,33 +3678,33 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="14">
         <f t="shared" si="1"/>
         <v>93.73567229999999</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="14">
         <f t="shared" si="2"/>
         <v>96.244073100000008</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="15">
         <f t="shared" si="3"/>
         <v>96.468377799999999</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I24" s="7">
         <f>[1]kNN_accuracies!A23</f>
         <v>130</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="14">
         <f>[1]kNN_accuracies!B23</f>
         <v>0.93622401099999997</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B23</f>
         <v>0.96245230500000001</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B23</f>
         <v>0.96448084700000003</v>
       </c>
@@ -3448,33 +3712,33 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="14">
         <f t="shared" si="1"/>
         <v>93.62240109999999</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="14">
         <f t="shared" si="2"/>
         <v>96.245230500000005</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="15">
         <f t="shared" si="3"/>
         <v>96.44808470000001</v>
       </c>
     </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I25" s="7">
         <f>[1]kNN_accuracies!A24</f>
         <v>140</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="14">
         <f>[1]kNN_accuracies!B24</f>
         <v>0.93513451000000003</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B24</f>
         <v>0.962412182</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B24</f>
         <v>0.96429952100000005</v>
       </c>
@@ -3482,33 +3746,33 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="14">
         <f t="shared" si="1"/>
         <v>93.513451000000003</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="14">
         <f t="shared" si="2"/>
         <v>96.241218200000006</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="15">
         <f t="shared" si="3"/>
         <v>96.429952100000008</v>
       </c>
     </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I26" s="7">
         <f>[1]kNN_accuracies!A25</f>
         <v>150</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="14">
         <f>[1]kNN_accuracies!B25</f>
         <v>0.93403652000000004</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B25</f>
         <v>0.96239057699999997</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B25</f>
         <v>0.96412128100000005</v>
       </c>
@@ -3516,33 +3780,33 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="14">
         <f t="shared" si="1"/>
         <v>93.403652000000008</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="14">
         <f t="shared" si="2"/>
         <v>96.239057700000004</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="15">
         <f t="shared" si="3"/>
         <v>96.412128100000004</v>
       </c>
     </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I27" s="7">
         <f>[1]kNN_accuracies!A26</f>
         <v>160</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="14">
         <f>[1]kNN_accuracies!B26</f>
         <v>0.933002573</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B26</f>
         <v>0.96241758300000002</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B26</f>
         <v>0.96393146600000001</v>
       </c>
@@ -3550,33 +3814,33 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="14">
         <f t="shared" si="1"/>
         <v>93.300257299999998</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="14">
         <f t="shared" si="2"/>
         <v>96.241758300000001</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="15">
         <f t="shared" si="3"/>
         <v>96.393146599999994</v>
       </c>
     </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I28" s="7">
         <f>[1]kNN_accuracies!A27</f>
         <v>170</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="14">
         <f>[1]kNN_accuracies!B27</f>
         <v>0.9320427</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B27</f>
         <v>0.96241835499999995</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B27</f>
         <v>0.96374859700000004</v>
       </c>
@@ -3584,33 +3848,33 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="14">
         <f t="shared" si="1"/>
         <v>93.204269999999994</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="14">
         <f t="shared" si="2"/>
         <v>96.241835499999993</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="15">
         <f t="shared" si="3"/>
         <v>96.374859700000002</v>
       </c>
     </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I29" s="7">
         <f>[1]kNN_accuracies!A28</f>
         <v>180</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="14">
         <f>[1]kNN_accuracies!B28</f>
         <v>0.93112526600000001</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B28</f>
         <v>0.96241449700000004</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B28</f>
         <v>0.96357498600000002</v>
       </c>
@@ -3618,33 +3882,33 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="14">
         <f t="shared" si="1"/>
         <v>93.112526599999995</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="14">
         <f t="shared" si="2"/>
         <v>96.241449700000004</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="15">
         <f t="shared" si="3"/>
         <v>96.3574986</v>
       </c>
     </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I30" s="7">
         <f>[1]kNN_accuracies!A29</f>
         <v>190</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="14">
         <f>[1]kNN_accuracies!B29</f>
         <v>0.93024101000000003</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="14">
         <f>[3]LDA_2comp_and_kNN_accuracies!B29</f>
         <v>0.96239211999999996</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="15">
         <f>[5]LDA_4comp_and_kNN_accuracies!B29</f>
         <v>0.96341217800000001</v>
       </c>
@@ -3652,33 +3916,33 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="14">
         <f t="shared" si="1"/>
         <v>93.024101000000002</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="14">
         <f t="shared" si="2"/>
         <v>96.239211999999995</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="15">
         <f t="shared" si="3"/>
         <v>96.341217799999995</v>
       </c>
     </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I31" s="8">
         <f>[1]kNN_accuracies!A30</f>
         <v>200</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="17">
         <f>[1]kNN_accuracies!B30</f>
         <v>0.92941076600000005</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="17">
         <f>[3]LDA_2comp_and_kNN_accuracies!B30</f>
         <v>0.96236974399999997</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="18">
         <f>[5]LDA_4comp_and_kNN_accuracies!B30</f>
         <v>0.96325245699999995</v>
       </c>
@@ -3686,25 +3950,26 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="17">
         <f t="shared" si="1"/>
         <v>92.941076600000002</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P31" s="17">
         <f t="shared" si="2"/>
         <v>96.236974399999994</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="18">
         <f t="shared" si="3"/>
         <v>96.325245699999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3712,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C7F6D7-2EA2-4339-9FE5-8DD23552ED6E}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3723,30 +3988,30 @@
     <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G1" s="24" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="M1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="S1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -3800,47 +4065,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <f>[8]performance!B2</f>
+        <f>[9]performance!B2</f>
         <v>0.66</v>
       </c>
       <c r="C3" s="1">
-        <f>[8]performance!C2</f>
+        <f>[9]performance!C2</f>
         <v>0.31</v>
       </c>
       <c r="D3" s="1">
-        <f>[8]performance!D2</f>
+        <f>[9]performance!D2</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E3" s="2">
-        <f>[8]performance!E2</f>
+        <f>[9]performance!E2</f>
         <v>0.95499999999999996</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="25" cm="1">
-        <f t="array" ref="H3:K8">[8]performance!$F$2:$I$7</f>
+      <c r="H3" s="20" cm="1">
+        <f t="array" ref="H3:K8">[9]performance!$F$2:$I$7</f>
         <v>0.31</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="21">
         <v>0</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="21">
         <v>0</v>
       </c>
-      <c r="K3" s="27" t="str">
+      <c r="K3" s="22" t="str">
         <v>NaN</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" cm="1">
-        <f t="array" ref="N3:Q8">[8]performance!$J$2:$M$7</f>
+        <f t="array" ref="N3:Q8">[9]performance!$J$2:$M$7</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O3" s="1">
@@ -3856,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" cm="1">
-        <f t="array" ref="T3:W8">[8]performance!$N$2:$Q$7</f>
+        <f t="array" ref="T3:W8">[9]performance!$N$2:$Q$7</f>
         <v>0.96199999999999997</v>
       </c>
       <c r="U3" s="1">
@@ -3869,30 +4134,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f>[8]performance!B3</f>
+        <f>[9]performance!B3</f>
         <v>0.59899999999999998</v>
       </c>
       <c r="C4" s="1">
-        <f>[8]performance!C3</f>
+        <f>[9]performance!C3</f>
         <v>0.4</v>
       </c>
-      <c r="D4" s="1">
-        <f>[8]performance!D3</f>
+      <c r="D4" s="13">
+        <f>[9]performance!D3</f>
         <v>0.92600000000000005</v>
       </c>
       <c r="E4" s="2">
-        <f>[8]performance!E3</f>
+        <f>[9]performance!E3</f>
         <v>0.47599999999999998</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="23">
         <v>0.28599999999999998</v>
       </c>
       <c r="I4" s="1">
@@ -3935,30 +4200,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <f>[8]performance!B4</f>
+        <f>[9]performance!B4</f>
         <v>0.7</v>
       </c>
       <c r="C5" s="1">
-        <f>[8]performance!C4</f>
+        <f>[9]performance!C4</f>
         <v>0.52700000000000002</v>
       </c>
       <c r="D5" s="1">
-        <f>[8]performance!D4</f>
+        <f>[9]performance!D4</f>
         <v>0.76100000000000001</v>
       </c>
       <c r="E5" s="2">
-        <f>[8]performance!E4</f>
+        <f>[9]performance!E4</f>
         <v>0.67100000000000004</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="23">
         <v>0.36699999999999999</v>
       </c>
       <c r="I5" s="1">
@@ -4001,30 +4266,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <f>[8]performance!B5</f>
+        <f>[9]performance!B5</f>
         <v>0.83099999999999996</v>
       </c>
-      <c r="C6" s="1">
-        <f>[8]performance!C5</f>
+      <c r="C6" s="13">
+        <f>[9]performance!C5</f>
         <v>0.94399999999999995</v>
       </c>
       <c r="D6" s="1">
-        <f>[8]performance!D5</f>
+        <f>[9]performance!D5</f>
         <v>0.5</v>
       </c>
-      <c r="E6" s="2">
-        <f>[8]performance!E5</f>
+      <c r="E6" s="35">
+        <f>[9]performance!E5</f>
         <v>0.98599999999999999</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="23">
         <v>0.98499999999999999</v>
       </c>
       <c r="I6" s="1" t="str">
@@ -4067,30 +4332,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f>[8]performance!B6</f>
+        <f>[9]performance!B6</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="C7" s="1">
-        <f>[8]performance!C6</f>
+        <f>[9]performance!C6</f>
         <v>0.66600000000000004</v>
       </c>
       <c r="D7" s="1">
-        <f>[8]performance!D6</f>
+        <f>[9]performance!D6</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="E7" s="2">
-        <f>[8]performance!E6</f>
+        <f>[9]performance!E6</f>
         <v>0.90200000000000002</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>0.98</v>
       </c>
       <c r="I7" s="1">
@@ -4133,30 +4398,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <f>[8]performance!B7</f>
+      <c r="B8" s="36">
+        <f>[9]performance!B7</f>
         <v>0.86699999999999999</v>
       </c>
       <c r="C8" s="3">
-        <f>[8]performance!C7</f>
+        <f>[9]performance!C7</f>
         <v>0.79200000000000004</v>
       </c>
       <c r="D8" s="3">
-        <f>[8]performance!D7</f>
+        <f>[9]performance!D7</f>
         <v>0.80300000000000005</v>
       </c>
       <c r="E8" s="9">
-        <f>[8]performance!E7</f>
+        <f>[9]performance!E7</f>
         <v>0.89900000000000002</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="24">
         <v>0.70699999999999996</v>
       </c>
       <c r="I8" s="3">
@@ -4199,16 +4464,36 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="H11" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="M11" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="R11" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="W11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
@@ -4222,114 +4507,464 @@
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="30" cm="1">
-        <f t="array" ref="B13:E18">[9]combined_AUC_values!$B$2:$E$7</f>
+      <c r="B13" s="25" cm="1">
+        <f t="array" ref="B13:E18">[10]combined_AUC_values!$B$2:$E$7</f>
         <v>0.49132443100000001</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="26">
         <v>0.50021507099999996</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="26">
         <v>0.49997214800000001</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" cm="1">
+        <f t="array" ref="H13:H18">H3:H8</f>
+        <v>0.31</v>
+      </c>
+      <c r="I13" s="1" cm="1">
+        <f t="array" ref="I13:I18">N3:N8</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13" s="2" cm="1">
+        <f t="array" ref="J13:J18">T3:T8</f>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" cm="1">
+        <f t="array" ref="M13:M18">I3:I8</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" cm="1">
+        <f t="array" ref="N13:N18">O3:O8</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" cm="1">
+        <f t="array" ref="O13:O18">U3:U8</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" cm="1">
+        <f t="array" ref="R13:R18">J3:J8</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" cm="1">
+        <f t="array" ref="S13:S18">P3:P8</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" cm="1">
+        <f t="array" ref="T13:T18">V3:V8</f>
+        <v>1</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="str" cm="1">
+        <f t="array" ref="W13:W18">K3:K8</f>
+        <v>NaN</v>
+      </c>
+      <c r="X13" s="1" cm="1">
+        <f t="array" ref="X13:X18">Q3:Q8</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" cm="1">
+        <f t="array" ref="Y13:Y18">W3:W8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="28">
         <v>0.62460575200000001</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>0.53035146300000002</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.96386615399999997</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0.515386554</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="28">
         <v>0.68850862400000001</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>0.47858066199999999</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>0.98765947600000004</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>0.50619098100000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="28">
         <v>0.74755285400000004</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>0.41790993900000001</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>0.98748730200000001</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <v>0.67031104799999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="28">
         <v>0.61444791200000004</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>0.30065280700000002</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>0.99418736399999996</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>0.60462996099999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <v>NaN</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>0.89681086200000004</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="38">
         <v>0.648885559</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="17">
         <v>0.97363741100000001</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>0.40273058</v>
       </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.751</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.996</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="X18" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>IF(D17&gt;D15,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="W11:Y11"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
@@ -4341,33 +4976,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F45016-4521-4FE6-B829-2AC7D139F09E}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="G1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -4397,39 +5033,39 @@
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28">
-        <f>[13]kNN_performance!$D$152</f>
+      <c r="B3" s="23">
+        <f>[11]kNN_performance!$D$152</f>
         <v>0.443946493</v>
       </c>
-      <c r="C3" s="1">
-        <f>[13]kNN_performance!$C$152</f>
+      <c r="C3" s="13">
+        <f>[11]kNN_performance!$C$152</f>
         <v>0.91925588300000005</v>
       </c>
       <c r="D3" s="1">
-        <f>[13]kNN_performance!$B$152</f>
+        <f>[11]kNN_performance!$B$152</f>
         <v>1.0772501E-2</v>
       </c>
       <c r="E3" s="2">
-        <f>[13]kNN_performance!$A$152</f>
+        <f>[11]kNN_performance!$A$152</f>
         <v>0.127698864</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="25">
-        <f>[13]kNN_performance!$D$152</f>
+      <c r="H3" s="20">
+        <f>[11]kNN_performance!$D$152</f>
         <v>0.443946493</v>
       </c>
-      <c r="I3" s="26">
-        <f>[13]kNN_performance!$A$77</f>
+      <c r="I3" s="21">
+        <f>[11]kNN_performance!$A$77</f>
         <v>0.15831500800000001</v>
       </c>
-      <c r="J3" s="40">
-        <f>[13]kNN_performance!$B$26</f>
+      <c r="J3" s="31">
+        <f>[11]kNN_performance!$B$26</f>
         <v>4.3409481E-2</v>
       </c>
-      <c r="K3" s="27">
-        <f>[13]kNN_performance!$C$201</f>
+      <c r="K3" s="22">
+        <f>[11]kNN_performance!$C$201</f>
         <v>1</v>
       </c>
     </row>
@@ -4437,39 +5073,39 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>[14]kNN2_performance!$D$199</f>
+      <c r="B4" s="23">
+        <f>[12]kNN2_performance!$D$199</f>
         <v>0.56649713899999998</v>
       </c>
       <c r="C4" s="1">
-        <f>[14]kNN2_performance!$A$199</f>
+        <f>[12]kNN2_performance!$A$199</f>
         <v>0.42989451200000001</v>
       </c>
       <c r="D4" s="1">
-        <f>[14]kNN2_performance!$B$199</f>
+        <f>[12]kNN2_performance!$B$199</f>
         <v>0.49091568499999999</v>
       </c>
       <c r="E4" s="2">
-        <f>[14]kNN2_performance!$C$199</f>
+        <f>[12]kNN2_performance!$C$199</f>
         <v>0.61158908999999995</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="28">
-        <f>[14]kNN2_performance!$D$199</f>
+      <c r="H4" s="23">
+        <f>[12]kNN2_performance!$D$199</f>
         <v>0.56649713899999998</v>
       </c>
       <c r="I4" s="1">
-        <f>[14]kNN2_performance!$A$199</f>
+        <f>[12]kNN2_performance!$A$199</f>
         <v>0.42989451200000001</v>
       </c>
       <c r="J4" s="1">
-        <f>[14]kNN2_performance!$B$2</f>
+        <f>[12]kNN2_performance!$B$2</f>
         <v>0.99851271500000005</v>
       </c>
       <c r="K4" s="2">
-        <f>[14]kNN2_performance!$C$201</f>
+        <f>[12]kNN2_performance!$C$201</f>
         <v>1</v>
       </c>
     </row>
@@ -4477,39 +5113,39 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28">
-        <f>[17]kNN4_performance!$D$179</f>
+      <c r="B5" s="23">
+        <f>[13]kNN4_performance!$D$179</f>
         <v>0.56754169544098998</v>
       </c>
       <c r="C5" s="1">
-        <f>[17]kNN4_performance!$A$179</f>
+        <f>[13]kNN4_performance!$A$179</f>
         <v>0.58809564540398596</v>
       </c>
       <c r="D5" s="1">
-        <f>[17]kNN4_performance!$B$179</f>
+        <f>[13]kNN4_performance!$B$179</f>
         <v>0.33768207167800601</v>
       </c>
-      <c r="E5" s="2">
-        <f>[17]kNN4_performance!$C$179</f>
+      <c r="E5" s="35">
+        <f>[13]kNN4_performance!$C$179</f>
         <v>0.78068525286172596</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="28">
-        <f>[17]kNN4_performance!$D$179</f>
+      <c r="H5" s="23">
+        <f>[13]kNN4_performance!$D$179</f>
         <v>0.56754169544098998</v>
       </c>
       <c r="I5" s="1">
-        <f>[17]kNN4_performance!$A$179</f>
+        <f>[13]kNN4_performance!$A$179</f>
         <v>0.58809564540398596</v>
       </c>
       <c r="J5" s="1">
-        <f>[17]kNN4_performance!$B$3</f>
+        <f>[13]kNN4_performance!$B$3</f>
         <v>0.55706380529218003</v>
       </c>
       <c r="K5" s="2">
-        <f>[17]kNN4_performance!$C$201</f>
+        <f>[13]kNN4_performance!$C$201</f>
         <v>1</v>
       </c>
     </row>
@@ -4517,39 +5153,39 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="28">
-        <f>[15]LDA2_performance!$D$11</f>
+      <c r="B6" s="23">
+        <f>[14]LDA2_performance!$D$11</f>
         <v>0.59048286900000002</v>
       </c>
       <c r="C6" s="1">
-        <f>[15]LDA2_performance!$A$11</f>
+        <f>[14]LDA2_performance!$A$11</f>
         <v>0.41864285400000001</v>
       </c>
       <c r="D6" s="1">
-        <f>[15]LDA2_performance!$B$11</f>
+        <f>[14]LDA2_performance!$B$11</f>
         <v>0.49574643499999999</v>
       </c>
       <c r="E6" s="2">
-        <f>[15]LDA2_performance!$C$11</f>
+        <f>[14]LDA2_performance!$C$11</f>
         <v>0.64001991700000005</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="28">
-        <f>[15]LDA2_performance!$D$11</f>
+      <c r="H6" s="23">
+        <f>[14]LDA2_performance!$D$11</f>
         <v>0.59048286900000002</v>
       </c>
       <c r="I6" s="1">
-        <f>[15]LDA2_performance!$A$23</f>
+        <f>[14]LDA2_performance!$A$23</f>
         <v>0.44089726899999998</v>
       </c>
       <c r="J6" s="1">
-        <f>[15]LDA2_performance!$B$2</f>
+        <f>[14]LDA2_performance!$B$2</f>
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <f>[15]LDA2_performance!$C$201</f>
+        <f>[14]LDA2_performance!$C$201</f>
         <v>1</v>
       </c>
     </row>
@@ -4557,39 +5193,39 @@
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28">
-        <f>[16]LDA4_performance!$D$11</f>
+      <c r="B7" s="23">
+        <f>[15]LDA4_performance!$D$11</f>
         <v>0.57749198499999999</v>
       </c>
       <c r="C7" s="1">
-        <f>[16]LDA4_performance!$A$11</f>
+        <f>[15]LDA4_performance!$A$11</f>
         <v>0.35245565800000001</v>
       </c>
       <c r="D7" s="1">
-        <f>[16]LDA4_performance!$B$11</f>
+        <f>[15]LDA4_performance!$B$11</f>
         <v>0.53032253399999996</v>
       </c>
       <c r="E7" s="2">
-        <f>[16]LDA4_performance!$C$11</f>
+        <f>[15]LDA4_performance!$C$11</f>
         <v>0.59700139299999999</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="28">
-        <f>[16]LDA4_performance!$D$11</f>
+      <c r="H7" s="23">
+        <f>[15]LDA4_performance!$D$11</f>
         <v>0.57749198499999999</v>
       </c>
       <c r="I7" s="1">
-        <f>[16]LDA4_performance!$A$12</f>
+        <f>[15]LDA4_performance!$A$12</f>
         <v>0.35283120699999998</v>
       </c>
       <c r="J7" s="1">
-        <f>[16]LDA4_performance!$B$2</f>
+        <f>[15]LDA4_performance!$B$2</f>
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <f>[16]LDA4_performance!$C$201</f>
+        <f>[15]LDA4_performance!$C$201</f>
         <v>1</v>
       </c>
     </row>
@@ -4597,144 +5233,165 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29">
-        <f>[18]SVM_G_performance!$D$70</f>
+      <c r="B8" s="39">
+        <f>[16]SVM_G_performance!$D$70</f>
         <v>0.66311569014008398</v>
       </c>
       <c r="C8" s="3">
-        <f>[18]SVM_G_performance!$A$70</f>
+        <f>[16]SVM_G_performance!$A$70</f>
         <v>0.53638515634268302</v>
       </c>
-      <c r="D8" s="3">
-        <f>[18]SVM_G_performance!$B$70</f>
+      <c r="D8" s="36">
+        <f>[16]SVM_G_performance!$B$70</f>
         <v>0.86290018832391702</v>
       </c>
       <c r="E8" s="9">
-        <f>[18]SVM_G_performance!$C$70</f>
+        <f>[16]SVM_G_performance!$C$70</f>
         <v>0.53985751915522096</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="29">
-        <f>[18]SVM_G_performance!$D$70</f>
+      <c r="H8" s="24">
+        <f>[16]SVM_G_performance!$D$70</f>
         <v>0.66311569014008398</v>
       </c>
       <c r="I8" s="3">
-        <f>[18]SVM_G_performance!$A$3</f>
+        <f>[16]SVM_G_performance!$A$3</f>
         <v>0.85105864835340705</v>
       </c>
       <c r="J8" s="3">
-        <f>[18]SVM_G_performance!$B$201</f>
+        <f>[16]SVM_G_performance!$B$201</f>
         <v>0.94158166644588703</v>
       </c>
       <c r="K8" s="9">
-        <f>[18]SVM_G_performance!$C$2</f>
+        <f>[16]SVM_G_performance!$C$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G12" s="35"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="52">
         <v>0.66</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="52">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="52">
         <v>0.95899999999999996</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.34511749600000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="52">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="52">
         <v>0.56599999999999995</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="52">
         <v>0.96199999999999997</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.46926130700000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="52">
         <v>0.7</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="52">
         <v>0.56799999999999995</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="53">
         <v>0.96699999999999997</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.42820359499999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="52">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="52">
         <v>0.59</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="52">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2">
+        <v>0.40507791300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="52">
         <v>0.81599999999999995</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="52">
         <v>0.57699999999999996</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="52">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="2">
+        <v>0.21136492500000001</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="40">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="40">
         <v>0.66300000000000003</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="54">
         <v>0.94</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.91231978300000005</v>
       </c>
     </row>
   </sheetData>
@@ -4752,7 +5409,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3:E8">[10]performance!$J$2:$M$7</f>
+        <f t="array" ref="B3:E8">[17]performance!$J$2:$M$7</f>
         <v>0.34511749600000002</v>
       </c>
       <c r="C3" s="1">
@@ -4865,27 +5522,27 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="36">
         <v>0.91231978300000005</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="36">
         <v>0.93040293900000004</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="36">
         <v>0.93076902399999994</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="42">
         <v>0.88071007000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -4899,24 +5556,24 @@
         <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="30" cm="1">
-        <f t="array" ref="B13:E18">[11]combined_AUC_values!$B$2:$E$7</f>
+      <c r="B13" s="25" cm="1">
+        <f t="array" ref="B13:E18">[18]combined_AUC_values!$B$2:$E$7</f>
         <v>0.5</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="26">
         <v>0.5</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="26">
         <v>0.5</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>0.5</v>
       </c>
     </row>
@@ -4924,16 +5581,16 @@
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="28">
         <v>0.63471380899999996</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>0.60472845399999997</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.61834152099999995</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0.64248851100000004</v>
       </c>
     </row>
@@ -4941,16 +5598,16 @@
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="28">
         <v>0.56182110100000004</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>0.56690388800000002</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>0.57716932499999996</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>0.57647898099999995</v>
       </c>
     </row>
@@ -4958,16 +5615,16 @@
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="28">
         <v>0.90999377999999997</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>0.92361093900000002</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>0.91442267499999996</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>0.92442122299999996</v>
       </c>
     </row>
@@ -4975,16 +5632,16 @@
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="28">
         <v>0.96181902699999999</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>0.96571475299999998</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>0.97572775300000003</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>0.97105308099999998</v>
       </c>
     </row>
@@ -4992,16 +5649,16 @@
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>0.97596959800000005</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="38">
         <v>0.99166546300000002</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="38">
         <v>0.99139493899999998</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="41">
         <v>0.98163177899999998</v>
       </c>
     </row>
@@ -5018,7 +5675,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3:E8">[12]performance!$K$2:$N$7</f>
+        <f t="array" ref="B3:E8">[19]performance!$K$2:$N$7</f>
         <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="13">
         <v>0.93526483699999996</v>
       </c>
       <c r="E3" s="2">
@@ -5131,16 +5788,16 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="36">
         <v>0.688804784</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="36">
         <v>0.19724804900000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="43">
         <v>0.87789484500000003</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="42">
         <v>0.48441634099999997</v>
       </c>
     </row>
